--- a/data/TablesZhangetal2017_WV.xlsx
+++ b/data/TablesZhangetal2017_WV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E7A1CE-5782-497F-B08A-AC4E4A16CA91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6963F5-A3CB-49DC-B8E5-659BB61DA4E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="609">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1825,9 +1825,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Approximate location using original report (Schneider &amp; Ayer 1961) and google maps</t>
-  </si>
-  <si>
     <t>willem</t>
   </si>
   <si>
@@ -1882,13 +1879,37 @@
     <t>duplicates of Troendle and King?</t>
   </si>
   <si>
-    <t>not in the Hibbert reference? Seems a straight copy from Bosch and Hewlett? Why was "South Fork" not added? Coordinates from google maps</t>
-  </si>
-  <si>
-    <t>duplicate of 260?</t>
-  </si>
-  <si>
-    <t>duplicate? Not in Hibbert 1979</t>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>duplicate of 260, one single year according to Bosch and Hewlett (1982) Not in Hibbert 1979</t>
+  </si>
+  <si>
+    <t>these values are extracted from Hibbert and Gottfried (1987) but are summarised in the "Study area" section of the paper, suggested to be for 1967 - 1979 (13 years). This is for the "South Fork" part. This is repeated in the Stednick paper and is 62 in Bosch and Hewlett (1982). original publication is actually Rich and Gottfried (1976)</t>
+  </si>
+  <si>
+    <t>Related to 260 In the Stednick 1996 paper (Table 1), this result appears also Table 1 in Bosch and Hewlett (1982) and averaging the 5 years post harvesting for "North Fork" "moist site" watershed #60, but it is also in Hibbert and Gottfried (1987), who cite Rich and Gottfried (1976) for the original data, In Hibbert and Gottfried, the time period is 1959 - 1966 (7 years)</t>
+  </si>
+  <si>
+    <t>Related to 260. Again in the "Study Area" of Hibbert and Gottfried (1987) but in this case for the "North Fork" dry site. Also in the Stednick 1996 paper (Table 1), and appears in Table 1 in Bosch and Hewlett (1982) "North Fork" watershed #60 but referring to the 1% riparian vegetation cut</t>
+  </si>
+  <si>
+    <t>related to 260. The results seem to differ between Rich and Gottfried (1976) and Hibbert and Gottfried. This result is Hibbert and Gottfried (1987). The result also appears in Stednick (1996). This is the "dry site" for North Fork. Time period based on Hibbert and Gottfried (1987).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another related to 260, Straight from Stednick 1996 paper as this result does not appear in Hibbert and Gottfried (1987) unless it is an interpretation of the storm flow). Seems to refer to North Fork dry site as in Bosch and Hewlett (1982) where they mention "residual burned (total 73% cleared). </t>
+  </si>
+  <si>
+    <t>not in the Hibbert reference. However, this seems to come from Bosch and Hewlett (1982) and either is a single year response or a duplicate of 304.</t>
+  </si>
+  <si>
+    <t>Data from https://waterdata.usgs.gov/</t>
+  </si>
+  <si>
+    <t>Original report is actually Schneider &amp; Ayer (1961) location from https://waterdata.usgs.gov/</t>
+  </si>
+  <si>
+    <t>Location from https://waterdata.usgs.gov/ Not in Brown et al. (2005), but in Bosch and Hewlett (1982). Original reference is Schneider and Ayer (1961), U.S. Geol. Surv., Water-Supply Pap. 1602.</t>
   </si>
 </sst>
 </file>
@@ -2030,6 +2051,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2042,7 +2064,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2367,54 +2388,54 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4559,68 +4580,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:Q253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P162" sqref="P162"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="10" t="s">
         <v>530</v>
       </c>
@@ -4633,11 +4654,11 @@
       <c r="O2" t="s">
         <v>551</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>62</v>
       </c>
@@ -4673,7 +4694,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>63</v>
       </c>
@@ -4709,7 +4730,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -4753,7 +4774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>65</v>
       </c>
@@ -4798,7 +4819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>66</v>
       </c>
@@ -4834,7 +4855,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>67</v>
       </c>
@@ -4880,11 +4901,12 @@
       <c r="O8" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>68</v>
       </c>
@@ -4920,7 +4942,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>69</v>
       </c>
@@ -4956,7 +4978,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>70</v>
       </c>
@@ -4992,7 +5014,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>71</v>
       </c>
@@ -5028,7 +5050,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>72</v>
       </c>
@@ -5063,11 +5085,11 @@
         <v>143</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="P13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>73</v>
       </c>
@@ -5103,7 +5125,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>74</v>
       </c>
@@ -5139,7 +5161,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>75</v>
       </c>
@@ -5175,7 +5197,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>76</v>
       </c>
@@ -5211,7 +5233,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>77</v>
       </c>
@@ -5246,11 +5268,11 @@
         <v>153</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="P18" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+      <c r="Q18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="51" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>78</v>
       </c>
@@ -5286,7 +5308,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>79</v>
       </c>
@@ -5322,7 +5344,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>80</v>
       </c>
@@ -5358,7 +5380,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>81</v>
       </c>
@@ -5394,7 +5416,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>82</v>
       </c>
@@ -5430,7 +5452,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>83</v>
       </c>
@@ -5465,11 +5487,11 @@
         <v>143</v>
       </c>
       <c r="L24" s="4"/>
-      <c r="P24" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q24" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>84</v>
       </c>
@@ -5505,7 +5527,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>85</v>
       </c>
@@ -5551,11 +5573,11 @@
       <c r="O26">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>86</v>
       </c>
@@ -5591,7 +5613,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>87</v>
       </c>
@@ -5627,7 +5649,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>88</v>
       </c>
@@ -5663,7 +5685,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>89</v>
       </c>
@@ -5699,7 +5721,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>90</v>
       </c>
@@ -5735,7 +5757,7 @@
       </c>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>91</v>
       </c>
@@ -5771,7 +5793,7 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>92</v>
       </c>
@@ -5807,7 +5829,7 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>93</v>
       </c>
@@ -5843,7 +5865,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>94</v>
       </c>
@@ -5879,7 +5901,7 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>95</v>
       </c>
@@ -5914,8 +5936,22 @@
         <v>183</v>
       </c>
       <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <f>42+31/60+52/3600</f>
+        <v>42.531111111111109</v>
+      </c>
+      <c r="N36">
+        <f>-(75+25/60+31/3600)</f>
+        <v>-75.425277777777779</v>
+      </c>
+      <c r="O36">
+        <v>26</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>96</v>
       </c>
@@ -5951,7 +5987,7 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>97</v>
       </c>
@@ -5987,7 +6023,7 @@
       </c>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>98</v>
       </c>
@@ -6023,7 +6059,7 @@
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>99</v>
       </c>
@@ -6059,7 +6095,7 @@
       </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>100</v>
       </c>
@@ -6095,10 +6131,10 @@
       </c>
       <c r="L41" s="4"/>
       <c r="O41" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>101</v>
       </c>
@@ -6134,7 +6170,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>102</v>
       </c>
@@ -6169,16 +6205,18 @@
         <v>153</v>
       </c>
       <c r="M43" s="4">
-        <v>42.173830140236902</v>
+        <f>42+9/60+40/3600</f>
+        <v>42.161111111111111</v>
       </c>
       <c r="N43">
-        <v>-75.409262268186097</v>
-      </c>
-      <c r="P43" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+        <f>-75-23/60-34/3600</f>
+        <v>-75.392777777777781</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>103</v>
       </c>
@@ -6214,7 +6252,7 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>104</v>
       </c>
@@ -6250,7 +6288,7 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>105</v>
       </c>
@@ -6286,7 +6324,7 @@
       </c>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>106</v>
       </c>
@@ -6322,7 +6360,7 @@
       </c>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>107</v>
       </c>
@@ -6934,7 +6972,7 @@
       </c>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>124</v>
       </c>
@@ -6970,7 +7008,7 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>125</v>
       </c>
@@ -7006,7 +7044,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>126</v>
       </c>
@@ -7051,7 +7089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>127</v>
       </c>
@@ -7087,7 +7125,7 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>128</v>
       </c>
@@ -7123,7 +7161,7 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>129</v>
       </c>
@@ -7159,7 +7197,7 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>130</v>
       </c>
@@ -7195,7 +7233,7 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>131</v>
       </c>
@@ -7241,11 +7279,11 @@
       <c r="O72">
         <v>24</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>132</v>
       </c>
@@ -7281,7 +7319,7 @@
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="51" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>133</v>
       </c>
@@ -7317,7 +7355,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>134</v>
       </c>
@@ -7353,7 +7391,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>135</v>
       </c>
@@ -7389,7 +7427,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>136</v>
       </c>
@@ -7425,7 +7463,7 @@
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>137</v>
       </c>
@@ -7461,7 +7499,7 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>138</v>
       </c>
@@ -7497,7 +7535,7 @@
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>139</v>
       </c>
@@ -7533,7 +7571,7 @@
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>140</v>
       </c>
@@ -7569,7 +7607,7 @@
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>141</v>
       </c>
@@ -7605,7 +7643,7 @@
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>142</v>
       </c>
@@ -7641,7 +7679,7 @@
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>143</v>
       </c>
@@ -7677,7 +7715,7 @@
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>144</v>
       </c>
@@ -7713,7 +7751,7 @@
       </c>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>145</v>
       </c>
@@ -7749,7 +7787,7 @@
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>146</v>
       </c>
@@ -7785,7 +7823,7 @@
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>147</v>
       </c>
@@ -7821,7 +7859,7 @@
       </c>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>148</v>
       </c>
@@ -7857,7 +7895,7 @@
       </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>149</v>
       </c>
@@ -7893,7 +7931,7 @@
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>150</v>
       </c>
@@ -7929,7 +7967,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>151</v>
       </c>
@@ -7973,11 +8011,11 @@
       <c r="O92">
         <v>30</v>
       </c>
-      <c r="P92" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q92" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>152</v>
       </c>
@@ -8021,11 +8059,11 @@
       <c r="O93">
         <v>30</v>
       </c>
-      <c r="P93" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q93" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>153</v>
       </c>
@@ -8069,11 +8107,11 @@
       <c r="O94">
         <v>30</v>
       </c>
-      <c r="P94" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="Q94" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>154</v>
       </c>
@@ -8109,7 +8147,7 @@
       </c>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>155</v>
       </c>
@@ -8145,7 +8183,7 @@
       </c>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>156</v>
       </c>
@@ -8189,11 +8227,11 @@
       <c r="O97">
         <v>30</v>
       </c>
-      <c r="P97" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q97" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>157</v>
       </c>
@@ -8237,11 +8275,11 @@
       <c r="O98">
         <v>30</v>
       </c>
-      <c r="P98" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="Q98" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>158</v>
       </c>
@@ -8282,11 +8320,11 @@
       <c r="N99">
         <v>-105.92363805782</v>
       </c>
-      <c r="P99" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q99" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>159</v>
       </c>
@@ -8322,7 +8360,7 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>160</v>
       </c>
@@ -8358,7 +8396,7 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>161</v>
       </c>
@@ -8394,7 +8432,7 @@
       </c>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>162</v>
       </c>
@@ -8430,7 +8468,7 @@
       </c>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>163</v>
       </c>
@@ -8466,7 +8504,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>164</v>
       </c>
@@ -8502,7 +8540,7 @@
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>165</v>
       </c>
@@ -8538,7 +8576,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>166</v>
       </c>
@@ -8574,7 +8612,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>167</v>
       </c>
@@ -8621,7 +8659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>168</v>
       </c>
@@ -8657,7 +8695,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -8693,7 +8731,7 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>170</v>
       </c>
@@ -8729,7 +8767,7 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>171</v>
       </c>
@@ -9341,7 +9379,7 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>188</v>
       </c>
@@ -9377,7 +9415,7 @@
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>189</v>
       </c>
@@ -9413,7 +9451,7 @@
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>190</v>
       </c>
@@ -9449,7 +9487,7 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>191</v>
       </c>
@@ -9485,7 +9523,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>192</v>
       </c>
@@ -9521,7 +9559,7 @@
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>193</v>
       </c>
@@ -9557,7 +9595,7 @@
       </c>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>194</v>
       </c>
@@ -9593,7 +9631,7 @@
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>195</v>
       </c>
@@ -9640,7 +9678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>196</v>
       </c>
@@ -9676,7 +9714,7 @@
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>197</v>
       </c>
@@ -9712,7 +9750,7 @@
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>198</v>
       </c>
@@ -9748,7 +9786,7 @@
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>199</v>
       </c>
@@ -9784,7 +9822,7 @@
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>200</v>
       </c>
@@ -9820,7 +9858,7 @@
       </c>
       <c r="L141" s="11"/>
     </row>
-    <row r="142" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>201</v>
       </c>
@@ -9856,7 +9894,7 @@
       </c>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>202</v>
       </c>
@@ -9900,11 +9938,11 @@
       <c r="O143">
         <v>6</v>
       </c>
-      <c r="P143" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q143" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>203</v>
       </c>
@@ -10516,7 +10554,7 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>220</v>
       </c>
@@ -10551,11 +10589,20 @@
         <v>385</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="P161" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M161">
+        <v>33.788912562983</v>
+      </c>
+      <c r="N161">
+        <v>-110.963855204659</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>221</v>
       </c>
@@ -10591,7 +10638,7 @@
       </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>222</v>
       </c>
@@ -10635,11 +10682,11 @@
       <c r="O163">
         <v>6</v>
       </c>
-      <c r="P163" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q163" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>223</v>
       </c>
@@ -10683,11 +10730,11 @@
       <c r="O164">
         <v>3</v>
       </c>
-      <c r="P164" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q164" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>224</v>
       </c>
@@ -10723,7 +10770,7 @@
       </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>225</v>
       </c>
@@ -10759,7 +10806,7 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>226</v>
       </c>
@@ -10795,7 +10842,7 @@
       </c>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>227</v>
       </c>
@@ -10831,7 +10878,7 @@
       </c>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>228</v>
       </c>
@@ -10867,7 +10914,7 @@
       </c>
       <c r="L169" s="11"/>
     </row>
-    <row r="170" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>229</v>
       </c>
@@ -10911,11 +10958,11 @@
       <c r="O170">
         <v>6</v>
       </c>
-      <c r="P170" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q170" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>230</v>
       </c>
@@ -10951,7 +10998,7 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>231</v>
       </c>
@@ -10987,7 +11034,7 @@
       </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>232</v>
       </c>
@@ -11023,7 +11070,7 @@
       </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>233</v>
       </c>
@@ -11059,7 +11106,7 @@
       </c>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>234</v>
       </c>
@@ -11095,7 +11142,7 @@
       </c>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>235</v>
       </c>
@@ -11131,7 +11178,7 @@
       </c>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>236</v>
       </c>
@@ -11167,7 +11214,7 @@
       </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>237</v>
       </c>
@@ -11203,7 +11250,7 @@
       </c>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>238</v>
       </c>
@@ -11239,7 +11286,7 @@
       </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>239</v>
       </c>
@@ -11275,7 +11322,7 @@
       </c>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>240</v>
       </c>
@@ -11310,11 +11357,11 @@
         <v>290</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="P181" t="s">
+      <c r="Q181" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>241</v>
       </c>
@@ -11350,7 +11397,7 @@
       </c>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>242</v>
       </c>
@@ -11386,7 +11433,7 @@
       </c>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>243</v>
       </c>
@@ -11422,7 +11469,7 @@
       </c>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>244</v>
       </c>
@@ -11458,7 +11505,7 @@
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>245</v>
       </c>
@@ -11494,7 +11541,7 @@
       </c>
       <c r="L186" s="4"/>
     </row>
-    <row r="187" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>246</v>
       </c>
@@ -11530,7 +11577,7 @@
       </c>
       <c r="L187" s="4"/>
     </row>
-    <row r="188" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>247</v>
       </c>
@@ -11566,7 +11613,7 @@
       </c>
       <c r="L188" s="4"/>
     </row>
-    <row r="189" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>248</v>
       </c>
@@ -11613,7 +11660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>249</v>
       </c>
@@ -11649,7 +11696,7 @@
       </c>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>250</v>
       </c>
@@ -11685,7 +11732,7 @@
       </c>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>251</v>
       </c>
@@ -12297,7 +12344,7 @@
       </c>
       <c r="L208" s="4"/>
     </row>
-    <row r="209" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>294</v>
       </c>
@@ -12333,7 +12380,7 @@
       </c>
       <c r="L209" s="4"/>
     </row>
-    <row r="210" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>295</v>
       </c>
@@ -12369,7 +12416,7 @@
       </c>
       <c r="L210" s="4"/>
     </row>
-    <row r="211" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>296</v>
       </c>
@@ -12405,7 +12452,7 @@
       </c>
       <c r="L211" s="4"/>
     </row>
-    <row r="212" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>297</v>
       </c>
@@ -12441,7 +12488,7 @@
       </c>
       <c r="L212" s="4"/>
     </row>
-    <row r="213" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>298</v>
       </c>
@@ -12487,11 +12534,12 @@
       <c r="O213" s="4">
         <v>24</v>
       </c>
-      <c r="P213" t="s">
+      <c r="P213" s="4"/>
+      <c r="Q213" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>299</v>
       </c>
@@ -12527,7 +12575,7 @@
       </c>
       <c r="L214" s="4"/>
     </row>
-    <row r="215" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>300</v>
       </c>
@@ -12563,7 +12611,7 @@
       </c>
       <c r="L215" s="4"/>
     </row>
-    <row r="216" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>301</v>
       </c>
@@ -12599,7 +12647,7 @@
       </c>
       <c r="L216" s="4"/>
     </row>
-    <row r="217" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>302</v>
       </c>
@@ -12634,11 +12682,23 @@
         <v>503</v>
       </c>
       <c r="L217" s="4"/>
+      <c r="M217">
+        <v>33.788912562983</v>
+      </c>
+      <c r="N217">
+        <v>-110.963855204659</v>
+      </c>
+      <c r="O217">
+        <v>5</v>
+      </c>
       <c r="P217" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>303</v>
       </c>
@@ -12673,11 +12733,20 @@
         <v>515</v>
       </c>
       <c r="L218" s="4"/>
+      <c r="M218">
+        <v>33.788912562983</v>
+      </c>
+      <c r="N218">
+        <v>-110.963855204659</v>
+      </c>
       <c r="P218" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>304</v>
       </c>
@@ -12712,11 +12781,23 @@
         <v>517</v>
       </c>
       <c r="L219" s="4"/>
+      <c r="M219">
+        <v>33.788912562983</v>
+      </c>
+      <c r="N219">
+        <v>-110.963855204659</v>
+      </c>
+      <c r="O219">
+        <v>11</v>
+      </c>
       <c r="P219" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>305</v>
       </c>
@@ -12751,11 +12832,23 @@
         <v>519</v>
       </c>
       <c r="L220" s="4"/>
+      <c r="M220">
+        <v>33.788912562983</v>
+      </c>
+      <c r="N220">
+        <v>-110.963855204659</v>
+      </c>
+      <c r="O220">
+        <v>13</v>
+      </c>
       <c r="P220" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q220" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>306</v>
       </c>
@@ -12790,11 +12883,23 @@
         <v>521</v>
       </c>
       <c r="L221" s="4"/>
+      <c r="M221">
+        <v>33.788912562983</v>
+      </c>
+      <c r="N221">
+        <v>-110.963855204659</v>
+      </c>
+      <c r="O221">
+        <v>11</v>
+      </c>
       <c r="P221" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>307</v>
       </c>
@@ -12830,7 +12935,7 @@
       </c>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>308</v>
       </c>
@@ -12866,7 +12971,7 @@
       </c>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>309</v>
       </c>
@@ -12902,7 +13007,7 @@
       </c>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>310</v>
       </c>
@@ -12938,7 +13043,7 @@
       </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>311</v>
       </c>
@@ -12985,7 +13090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>312</v>
       </c>
@@ -13020,11 +13125,11 @@
         <v>345</v>
       </c>
       <c r="L227" s="11"/>
-      <c r="P227" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q227" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>257</v>
       </c>
@@ -13060,7 +13165,7 @@
       </c>
       <c r="L228" s="11"/>
     </row>
-    <row r="229" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>258</v>
       </c>
@@ -13096,7 +13201,7 @@
       </c>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>259</v>
       </c>
@@ -13131,8 +13236,22 @@
         <v>449</v>
       </c>
       <c r="L230" s="4"/>
-    </row>
-    <row r="231" spans="1:16" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="M230">
+        <f>42+46/60+2/3600</f>
+        <v>42.767222222222223</v>
+      </c>
+      <c r="N230">
+        <f>-76-1/60-7/3600</f>
+        <v>-76.018611111111113</v>
+      </c>
+      <c r="O230">
+        <v>28</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>260</v>
       </c>
@@ -13174,13 +13293,16 @@
         <v>-110.963855204659</v>
       </c>
       <c r="O231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>261</v>
       </c>
@@ -13225,10 +13347,13 @@
         <v>21</v>
       </c>
       <c r="P232" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>262</v>
       </c>
@@ -13273,10 +13398,13 @@
         <v>6</v>
       </c>
       <c r="P233" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>263</v>
       </c>
@@ -13323,7 +13451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>264</v>
       </c>
@@ -13365,10 +13493,13 @@
         <v>-105.915166208657</v>
       </c>
       <c r="P235" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>265</v>
       </c>
@@ -13410,10 +13541,13 @@
         <v>-105.915166208657</v>
       </c>
       <c r="P236" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>266</v>
       </c>
@@ -13458,10 +13592,13 @@
         <v>6</v>
       </c>
       <c r="P237" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>267</v>
       </c>
@@ -13508,7 +13645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>268</v>
       </c>
@@ -13554,11 +13691,11 @@
       <c r="O239">
         <v>8</v>
       </c>
-      <c r="P239" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q239" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>269</v>
       </c>
@@ -13604,11 +13741,11 @@
       <c r="O240">
         <v>1</v>
       </c>
-      <c r="P240" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q240" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>270</v>
       </c>
@@ -13655,11 +13792,11 @@
         <f>1981-1957</f>
         <v>24</v>
       </c>
-      <c r="P241" s="19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q241" s="15" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>271</v>
       </c>
@@ -13705,11 +13842,11 @@
       <c r="O242">
         <v>20</v>
       </c>
-      <c r="P242" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="Q242" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>272</v>
       </c>
@@ -13753,11 +13890,11 @@
       <c r="O243">
         <v>17</v>
       </c>
-      <c r="P243" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="Q243" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>273</v>
       </c>
@@ -13802,10 +13939,13 @@
         <v>8</v>
       </c>
       <c r="P244" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>274</v>
       </c>
@@ -13850,7 +13990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>275</v>
       </c>
@@ -13895,10 +14035,13 @@
         <v>10</v>
       </c>
       <c r="P246" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>276</v>
       </c>
@@ -13943,10 +14086,13 @@
         <v>10</v>
       </c>
       <c r="P247" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>277</v>
       </c>
@@ -13991,10 +14137,13 @@
         <v>10</v>
       </c>
       <c r="P248" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>278</v>
       </c>
@@ -14039,11 +14188,11 @@
       <c r="O249">
         <v>8</v>
       </c>
-      <c r="P249" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q249" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>279</v>
       </c>
@@ -14088,10 +14237,13 @@
         <v>9</v>
       </c>
       <c r="P250" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>280</v>
       </c>
@@ -14136,10 +14288,13 @@
         <v>7</v>
       </c>
       <c r="P251" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>281</v>
       </c>
@@ -14186,7 +14341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>282</v>
       </c>
@@ -14247,7 +14402,7 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P241" r:id="rId1" display="https://www2.ffpri.go.jp/labs/fwdb/sites/takaragawaE.htm reference should be Bosch, J.M., Hewlett, J.D., 1982. A review of catchment experiments to determine the effect of vegetation changes on water yield and evapotranspiration. Journal of Hydrology, 55: 3-23. " xr:uid="{5309022A-E206-41E7-A5C0-F8D3DD4A0F00}"/>
+    <hyperlink ref="Q241" r:id="rId1" display="https://www2.ffpri.go.jp/labs/fwdb/sites/takaragawaE.htm reference should be Bosch, J.M., Hewlett, J.D., 1982. A review of catchment experiments to determine the effect of vegetation changes on water yield and evapotranspiration. Journal of Hydrology, 55: 3-23. " xr:uid="{5309022A-E206-41E7-A5C0-F8D3DD4A0F00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
@@ -14258,8 +14413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:M18"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14268,54 +14423,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" t="s">
         <v>527</v>
       </c>
@@ -15088,7 +15243,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/TablesZhangetal2017_WV.xlsx
+++ b/data/TablesZhangetal2017_WV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6963F5-A3CB-49DC-B8E5-659BB61DA4E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A4A01-DE76-4C79-A381-39F283691BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="22690" yWindow="3630" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="615">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1840,9 +1840,6 @@
     <t>coordinates guessed from google maps</t>
   </si>
   <si>
-    <t>The tree felling is actually incremental in time, so not really a single observation</t>
-  </si>
-  <si>
     <t>time period guessed from Fig 5 in Beck et al.</t>
   </si>
   <si>
@@ -1855,9 +1852,6 @@
     <t>time period to the first change point in Webb and Jarrett (2013)</t>
   </si>
   <si>
-    <t>There is no Yerrami S in Zhou et al.</t>
-  </si>
-  <si>
     <t>Bosboukloof</t>
   </si>
   <si>
@@ -1910,6 +1904,30 @@
   </si>
   <si>
     <t>Location from https://waterdata.usgs.gov/ Not in Brown et al. (2005), but in Bosch and Hewlett (1982). Original reference is Schneider and Ayer (1961), U.S. Geol. Surv., Water-Supply Pap. 1602.</t>
+  </si>
+  <si>
+    <t>The tree felling is actually incremental in time, so not really a single observation. In addition, there are no clear individual coordinates for the subcatchments in Plynlimon. We probably need to download the shapefiles.</t>
+  </si>
+  <si>
+    <t>coordinates from USGS</t>
+  </si>
+  <si>
+    <t>usgs coordinates</t>
+  </si>
+  <si>
+    <t>coordinates usgs</t>
+  </si>
+  <si>
+    <t>Another catchment in Bart and Hope that was for some reason not added originally. Coordinates from usgs</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>There is no Yerrami S in Zhou et al. This is originally from Ruprecht and Schofield (1989), but they are citing a WA water resources report</t>
+  </si>
+  <si>
+    <t>coordinates from usgs</t>
   </si>
 </sst>
 </file>
@@ -4582,14 +4600,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:Q253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="C220" workbookViewId="0">
+      <selection activeCell="Q226" sqref="Q226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5756,6 +5773,20 @@
         <v>174</v>
       </c>
       <c r="L31" s="11"/>
+      <c r="M31">
+        <f>36+24/60+8/3600</f>
+        <v>36.402222222222221</v>
+      </c>
+      <c r="N31">
+        <f>-120-25/60-57/3600</f>
+        <v>-120.4325</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -5948,7 +5979,7 @@
         <v>26</v>
       </c>
       <c r="Q36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6213,7 +6244,7 @@
         <v>-75.392777777777781</v>
       </c>
       <c r="Q43" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -8012,7 +8043,7 @@
         <v>30</v>
       </c>
       <c r="Q92" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8060,7 +8091,7 @@
         <v>30</v>
       </c>
       <c r="Q93" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8108,7 +8139,7 @@
         <v>30</v>
       </c>
       <c r="Q94" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -8228,7 +8259,7 @@
         <v>30</v>
       </c>
       <c r="Q97" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8276,7 +8307,7 @@
         <v>30</v>
       </c>
       <c r="Q98" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="61.2" x14ac:dyDescent="0.3">
@@ -8321,7 +8352,7 @@
         <v>-105.92363805782</v>
       </c>
       <c r="Q99" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9821,6 +9852,17 @@
         <v>174</v>
       </c>
       <c r="L140" s="4"/>
+      <c r="M140">
+        <f>35+14/60+8/3600</f>
+        <v>35.235555555555557</v>
+      </c>
+      <c r="N140">
+        <f>-120-28/60-17/3600</f>
+        <v>-120.4713888888889</v>
+      </c>
+      <c r="O140">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
@@ -10599,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="Q161" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -10683,7 +10725,7 @@
         <v>6</v>
       </c>
       <c r="Q163" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10731,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="Q164" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -11768,7 +11810,7 @@
       </c>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>252</v>
       </c>
@@ -11804,7 +11846,7 @@
       </c>
       <c r="L193" s="4"/>
     </row>
-    <row r="194" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>253</v>
       </c>
@@ -11840,7 +11882,7 @@
       </c>
       <c r="L194" s="4"/>
     </row>
-    <row r="195" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>254</v>
       </c>
@@ -11876,7 +11918,7 @@
       </c>
       <c r="L195" s="4"/>
     </row>
-    <row r="196" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>255</v>
       </c>
@@ -11912,7 +11954,7 @@
       </c>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>256</v>
       </c>
@@ -11947,8 +11989,22 @@
         <v>174</v>
       </c>
       <c r="L197" s="11"/>
-    </row>
-    <row r="198" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M197">
+        <f>34+24/60+48/3600</f>
+        <v>34.413333333333334</v>
+      </c>
+      <c r="N197">
+        <f>-119-4/60-23/3600</f>
+        <v>-119.07305555555556</v>
+      </c>
+      <c r="O197">
+        <v>5</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>283</v>
       </c>
@@ -11984,7 +12040,7 @@
       </c>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>284</v>
       </c>
@@ -12020,7 +12076,7 @@
       </c>
       <c r="L199" s="4"/>
     </row>
-    <row r="200" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>285</v>
       </c>
@@ -12056,7 +12112,7 @@
       </c>
       <c r="L200" s="4"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>286</v>
       </c>
@@ -12092,7 +12148,7 @@
       </c>
       <c r="L201" s="4"/>
     </row>
-    <row r="202" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>287</v>
       </c>
@@ -12128,7 +12184,7 @@
       </c>
       <c r="L202" s="4"/>
     </row>
-    <row r="203" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>288</v>
       </c>
@@ -12164,7 +12220,7 @@
       </c>
       <c r="L203" s="4"/>
     </row>
-    <row r="204" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>289</v>
       </c>
@@ -12200,7 +12256,7 @@
       </c>
       <c r="L204" s="4"/>
     </row>
-    <row r="205" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>290</v>
       </c>
@@ -12236,7 +12292,7 @@
       </c>
       <c r="L205" s="4"/>
     </row>
-    <row r="206" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>291</v>
       </c>
@@ -12272,7 +12328,7 @@
       </c>
       <c r="L206" s="4"/>
     </row>
-    <row r="207" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>292</v>
       </c>
@@ -12308,7 +12364,7 @@
       </c>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>293</v>
       </c>
@@ -12692,10 +12748,10 @@
         <v>5</v>
       </c>
       <c r="P217" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q217" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="218" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -12740,10 +12796,10 @@
         <v>-110.963855204659</v>
       </c>
       <c r="P218" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q218" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -12791,10 +12847,10 @@
         <v>11</v>
       </c>
       <c r="P219" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q219" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -12842,10 +12898,10 @@
         <v>13</v>
       </c>
       <c r="P220" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q220" t="s">
         <v>598</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -12893,10 +12949,10 @@
         <v>11</v>
       </c>
       <c r="P221" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q221" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -13042,6 +13098,20 @@
         <v>523</v>
       </c>
       <c r="L225" s="4"/>
+      <c r="M225">
+        <f>43+57/60+17.45/3600</f>
+        <v>43.954847222222227</v>
+      </c>
+      <c r="N225">
+        <f>-71-43/60-22.21/3600</f>
+        <v>-71.722836111111107</v>
+      </c>
+      <c r="O225">
+        <v>25</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="226" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
@@ -13125,8 +13195,20 @@
         <v>345</v>
       </c>
       <c r="L227" s="11"/>
+      <c r="M227">
+        <v>-34.1738338289274</v>
+      </c>
+      <c r="N227">
+        <v>116.379359835201</v>
+      </c>
+      <c r="O227">
+        <v>5</v>
+      </c>
+      <c r="P227" t="s">
+        <v>596</v>
+      </c>
       <c r="Q227" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -13164,6 +13246,20 @@
         <v>174</v>
       </c>
       <c r="L228" s="11"/>
+      <c r="M228">
+        <f>34+34/60+10/3600</f>
+        <v>34.56944444444445</v>
+      </c>
+      <c r="N228">
+        <f>-119-15/60-23/3600</f>
+        <v>-119.25638888888889</v>
+      </c>
+      <c r="O228">
+        <v>5</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="229" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
@@ -13200,6 +13296,18 @@
         <v>299</v>
       </c>
       <c r="L229" s="4"/>
+      <c r="M229">
+        <v>52.472088267260901</v>
+      </c>
+      <c r="N229">
+        <v>-3.71674779431117</v>
+      </c>
+      <c r="O229">
+        <v>17</v>
+      </c>
+      <c r="P229" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="230" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
@@ -13248,7 +13356,7 @@
         <v>28</v>
       </c>
       <c r="Q230" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="231" spans="1:17" ht="61.2" x14ac:dyDescent="0.3">
@@ -13296,10 +13404,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q231" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="232" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
@@ -13347,7 +13455,7 @@
         <v>21</v>
       </c>
       <c r="P232" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q232" t="s">
         <v>584</v>
@@ -13398,7 +13506,7 @@
         <v>6</v>
       </c>
       <c r="P233" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q233" t="s">
         <v>584</v>
@@ -13493,10 +13601,10 @@
         <v>-105.915166208657</v>
       </c>
       <c r="P235" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q235" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="236" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -13541,7 +13649,7 @@
         <v>-105.915166208657</v>
       </c>
       <c r="P236" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q236" t="s">
         <v>584</v>
@@ -13592,7 +13700,7 @@
         <v>6</v>
       </c>
       <c r="P237" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q237" t="s">
         <v>584</v>
@@ -13692,7 +13800,7 @@
         <v>8</v>
       </c>
       <c r="Q239" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
@@ -13742,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="Q240" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="241" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -13793,7 +13901,7 @@
         <v>24</v>
       </c>
       <c r="Q241" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="242" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -13843,7 +13951,7 @@
         <v>20</v>
       </c>
       <c r="Q242" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="243" spans="1:17" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -13890,8 +13998,11 @@
       <c r="O243">
         <v>17</v>
       </c>
+      <c r="P243" t="s">
+        <v>596</v>
+      </c>
       <c r="Q243" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
     </row>
     <row r="244" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -13939,7 +14050,7 @@
         <v>8</v>
       </c>
       <c r="P244" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q244" t="s">
         <v>584</v>
@@ -14035,7 +14146,7 @@
         <v>10</v>
       </c>
       <c r="P246" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q246" t="s">
         <v>584</v>
@@ -14086,7 +14197,7 @@
         <v>10</v>
       </c>
       <c r="P247" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q247" t="s">
         <v>584</v>
@@ -14137,7 +14248,7 @@
         <v>10</v>
       </c>
       <c r="P248" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q248" t="s">
         <v>584</v>
@@ -14237,7 +14348,7 @@
         <v>9</v>
       </c>
       <c r="P250" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q250" t="s">
         <v>581</v>
@@ -14288,7 +14399,7 @@
         <v>7</v>
       </c>
       <c r="P251" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q251" t="s">
         <v>581</v>
@@ -14411,15 +14522,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -14489,7 +14601,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>529</v>
@@ -14536,7 +14648,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
         <v>531</v>
@@ -14583,7 +14695,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>533</v>
@@ -14630,7 +14742,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>534</v>
@@ -14677,7 +14789,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>535</v>
@@ -14724,7 +14836,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>536</v>
@@ -14771,7 +14883,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>537</v>
@@ -14818,7 +14930,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
         <v>538</v>
@@ -14865,7 +14977,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>539</v>
@@ -14912,7 +15024,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
         <v>540</v>
@@ -14959,7 +15071,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
         <v>541</v>
@@ -15005,8 +15117,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>294</v>
+      <c r="A14">
+        <v>324</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>432</v>
@@ -15059,7 +15171,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
         <v>542</v>
@@ -15106,7 +15218,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
         <v>543</v>
@@ -15153,7 +15265,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
         <v>544</v>
@@ -15199,8 +15311,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>298</v>
+      <c r="A18">
+        <v>328</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>546</v>
@@ -15248,7 +15360,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
         <v>547</v>
@@ -15298,7 +15410,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
         <v>563</v>
@@ -15348,7 +15460,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B21" t="s">
         <v>552</v>
@@ -15398,7 +15510,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
         <v>561</v>
@@ -15448,7 +15560,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
         <v>566</v>
@@ -15495,7 +15607,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
         <v>567</v>
@@ -15548,7 +15660,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="B25" t="s">
         <v>570</v>
@@ -15598,7 +15710,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="B26" t="s">
         <v>573</v>
@@ -15645,6 +15757,55 @@
       </c>
       <c r="Q26" t="s">
         <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>337</v>
+      </c>
+      <c r="B27" t="s">
+        <v>612</v>
+      </c>
+      <c r="C27">
+        <v>104</v>
+      </c>
+      <c r="D27">
+        <v>680</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6">
+        <v>-32</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27">
+        <f>35+53/60+48/3600</f>
+        <v>35.896666666666668</v>
+      </c>
+      <c r="M27">
+        <f>-121-5/60-14/3600</f>
+        <v>-121.08722222222222</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/data/TablesZhangetal2017_WV.xlsx
+++ b/data/TablesZhangetal2017_WV.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E19211-62FC-4CAC-8941-E74D2D845D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF9B447-6435-471B-B0EF-F78143F87A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="0" windowWidth="19420" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhang et al. (2017) &gt;1000km2" sheetId="1" r:id="rId1"/>
     <sheet name="Zhang et al. (2017) &lt; 1000 km2" sheetId="2" r:id="rId2"/>
     <sheet name="NewData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="812">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1213,9 +1213,6 @@
     <t>Monda 3</t>
   </si>
   <si>
-    <t>MP1</t>
-  </si>
-  <si>
     <t>Buytaert et al.,2007</t>
   </si>
   <si>
@@ -1262,9 +1259,6 @@
   </si>
   <si>
     <t>Hibbert,1971,1979;</t>
-  </si>
-  <si>
-    <t>Natural DRDages, Ariz., U.S.A, C</t>
   </si>
   <si>
     <t>Hibbert et al.,1975</t>
@@ -2189,9 +2183,6 @@
   </si>
   <si>
     <t>To</t>
-  </si>
-  <si>
-    <t>site 12, Bukit Berembun, Malaysia</t>
   </si>
   <si>
     <t>Precipitation data type</t>
@@ -2287,6 +2278,9 @@
     <t>Data from https://waterdata.usgs.gov/</t>
   </si>
   <si>
+    <t>Swartboskloof is the name in the paper, increase in flow is 15.3%? Table 4 in paper</t>
+  </si>
+  <si>
     <t>Related to 260 In the Stednick 1996 paper (Table 1), this result appears also Table 1 in Bosch and Hewlett (1982) and averaging the 5 years post harvesting for "North Fork" "moist site" watershed #60, but it is also in Hibbert and Gottfried (1987), who cite Rich and Gottfried (1976) for the original data, In Hibbert and Gottfried, the time period is 1959 - 1966 (7 years)</t>
   </si>
   <si>
@@ -2299,6 +2293,9 @@
     <t>duplicate of 156 and 157?</t>
   </si>
   <si>
+    <t>time period to the first change point in Webb and Jarrett (2013)</t>
+  </si>
+  <si>
     <t>There is no Yerrami S in Zhou et al. This is originally from Ruprecht and Schofield (1989), but they are citing a WA water resources report</t>
   </si>
   <si>
@@ -2341,31 +2338,138 @@
     <t>Coordinates from GM as there is no map in the paper. Monachyle and Kirkton catchments with the reference gauge at Tulloch Farm</t>
   </si>
   <si>
-    <t xml:space="preserve">Area seems incorrect. Paper says 29.3 ha within a larger 610 km2 area, but all modelling is only for the 29.3 ha </t>
-  </si>
-  <si>
-    <t>location data from https://waterdata.usgs.gov/nwis/inventory/?site_no=50071000&amp;agency_cd=USGS</t>
-  </si>
-  <si>
-    <t>This and 239 are the same catchment but two different logging events</t>
-  </si>
-  <si>
-    <t>159, 160, 165, 239, 240 and 268 are all Yambulla state forest. The location details refer to the overall location not the individual catchments</t>
-  </si>
-  <si>
-    <t>see 240. 159, 160, 165, 239, 240 and 268 are all Yambulla state forest. The location details refer to the overall location not the individual catchments</t>
-  </si>
-  <si>
-    <t>time period to the first change point in Webb and Jarrett (2013) 159, 160, 165, 239, 240 and 268 are all Yambulla state forest. The location details refer to the overall location not the individual catchments</t>
-  </si>
-  <si>
-    <t>The paper suggests a change in cover of 85% and also a negative value, not a positive. It also is not totally clear how the delta Q is calculated, presumably from Table 4 in the paper. Ths study period is also very short</t>
-  </si>
-  <si>
-    <t>Same catchment as 85, but older study. Authors are "van der Zel and Kruger". Original paper not accessible. Coordinates from supplementary material S1 in Slingsby, JA, de Buys, A, Simmers, ADA, et al. Jonkershoek: Africa's oldest catchment experiment - 80 years and counting. Hydrological Processes. 2021; 35:e14101. https://doi.org/10.1002/hyp.14101. Dates guessed from description of treatments in Slingsby et al supplementary material.</t>
-  </si>
-  <si>
-    <t>Swartboskloof is the name in the paper, increase in flow is 15.3%? Table 4 in paper, see also notes with 184 and Slingsby et al. 2021 DOI: 10.1002/hyp.14101. The Scott paper only analyses 1 year after fire</t>
+    <t>need to update USGS coordinate</t>
+  </si>
+  <si>
+    <t>Point Location from the original report Swift and Swank (1980)</t>
+  </si>
+  <si>
+    <t>Catchment 3</t>
+  </si>
+  <si>
+    <t>1950/51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to 1957/58</t>
+  </si>
+  <si>
+    <t>Should be Bosch and Hwelett 1982? Is it South Fork, Workman Creek? Approximate location using GE as there is no reference in Bosh and Hewlett 1982</t>
+  </si>
+  <si>
+    <t>Pre treatment 1937 - 2003 Post treatment 2004-2012</t>
+  </si>
+  <si>
+    <t>18 Abdul Rahim Zulkifli 1986 Zulfikly 1989, Zulkifli 1989</t>
+  </si>
+  <si>
+    <t>12 Huttel 1975</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Location determined as per map, using closer USGS station number 343428111511500 BEAVER CREEK AT MOUTH NR CAMP VERDE, AZ, Paper does not mention that is catchment #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aproximate location as gauge station http://www.saihebro.com/saihebro/index.php?url=/datos/ficha/estacion:E058</t>
+  </si>
+  <si>
+    <t>Aproximate location as  gauge station http://www.saihebro.com/saihebro/index.php?url=/datos/ficha/estacion:A252</t>
+  </si>
+  <si>
+    <t>Porcupine River at Hoyle. Point location M2 station 04MD004 from  https://www.r-arcticnet.sr.unh.edu/v4.0/ViewPoint.pl?View=ALL&amp;Unit=mm&amp;Point=4378</t>
+  </si>
+  <si>
+    <t>Mattawishkwia River at Hearst Point location from  https://www.r-arcticnet.sr.unh.edu/Points/Des4371.txt</t>
+  </si>
+  <si>
+    <t>MP1,Ecuador</t>
+  </si>
+  <si>
+    <t>1971-1976 prelogging and 1978-1983 postlogging periods</t>
+  </si>
+  <si>
+    <t>not in Harr 1976</t>
+  </si>
+  <si>
+    <t>1966-1967 25% clearcut, patches roads constructed (5%)</t>
+  </si>
+  <si>
+    <t>1966 82% clearcut burned in 1967, 5% roads</t>
+  </si>
+  <si>
+    <t>Same time period as other catchments as assumed from the paper. 1969-1970 25% clearcut</t>
+  </si>
+  <si>
+    <t>Aproximate location in GE. 1970-1972 25% clearcut</t>
+  </si>
+  <si>
+    <t>not found in citation</t>
+  </si>
+  <si>
+    <t>not found in Harr , 1973 . Found in Bosch and Hawlett as Rowe (1963)</t>
+  </si>
+  <si>
+    <t>1938--1939, 70% reforested, mostly pine. Location as USGS 402157081481500 ARS WATERSHED 172 WEIR NR CHILI OH</t>
+  </si>
+  <si>
+    <t>From Bosch and Hawlett et al 1982: treatment 1962--1964, 51% clearcut, 22% thinned (65% basal area). Location of station 28 from Laserat et al 2012 doi: 10.2166/nh.2012.067
+Need to find original article https://agris.fao.org/agris-search/search.do?recordID=US201300317359 to check the length of the study</t>
+  </si>
+  <si>
+    <t>From Bosch and Hawlett et al 1982: treatment 1955, 50% poisoned in
+alternate 10-m strips, no removal, regrowth restricted. Aproximatex location from COWEETA EXP STATION, NC
+MACON County, Coop ID: 312102</t>
+  </si>
+  <si>
+    <t>From Bosch and Hawlett et al 1982: treatment 1974/1975 100% clearcut, roller chopped twice, and pine planted by machine
+Need to find the book. https://www.vgls.vic.gov.au/client/en_AU/VGLS-public/search/detailnonmodal?qu=Water+harvesting.&amp;d=ent%3A%2F%2FSD_ILS%2F0%2FSD_ILS%3A25738%7EILS%7E0&amp;ps=300</t>
+  </si>
+  <si>
+    <t>incorrect source</t>
+  </si>
+  <si>
+    <t>Maybe in Brown 1917 https://cedb.asce.org/CEDBsearch/record.jsp?dockey=0018342</t>
+  </si>
+  <si>
+    <t>not in the Hibbert reference  from Bosch and Hewlett (1982) exp number 73. Treatmment : 1968, 83% overstorey killed with herbicides
+Location as USGS 350821077314903 JO-047 BEAVER CREEK RS 3</t>
+  </si>
+  <si>
+    <t>Natural Drainages, Ariz., U.S.A, C</t>
+  </si>
+  <si>
+    <t>1954, 100% chemically
+controlled</t>
+  </si>
+  <si>
+    <t>Location as Natural Drainage Watersheds in Central Arizona. From Bosch and Hawlett 1982, treatment: 1954, 100% chemically
+controlled</t>
+  </si>
+  <si>
+    <t>paper not found</t>
+  </si>
+  <si>
+    <t>Hornbeck et al 1993</t>
+  </si>
+  <si>
+    <t>Hornbeck et al 1994</t>
+  </si>
+  <si>
+    <t>Hornbeck et al 1995</t>
+  </si>
+  <si>
+    <t>Hornbeck et al 1996</t>
+  </si>
+  <si>
+    <t>coordinates using Slingsby et al. 2021, DOI: 10.1002/hyp.14101. Years based on "15 years" in Bosch and Hewlett, 1982</t>
+  </si>
+  <si>
+    <t>Location based on statement: about 22 km northwest of Elgin and 8 km
+southwest of the Spout Springs Winter Recreation Area in https://www.fs.fed.us/pnw/pubs/pnw_rn361.pdf</t>
+  </si>
+  <si>
+    <t>Author gives only one location for 192 and 231</t>
   </si>
   <si>
     <t>Should be Lambrechtsbos B, see Slingsby et al. 2021 DOI: 10.1002/hyp.14101  The Scott paper only analyses 1 year after fire</t>
@@ -2374,7 +2478,28 @@
     <t>Bosboukloof, see also notes on 184 and Slingsby e al. 2021 DOI: 10.1002/hyp.14101  The Scott paper only analyses 1 year after fire</t>
   </si>
   <si>
-    <t>coordinates using Slingsby et al. 2021, DOI: 10.1002/hyp.14101. Years based on "15 years" in Bosch and Hewlett, 1982</t>
+    <t>Copy of #63?</t>
+  </si>
+  <si>
+    <t>Location guessed based on description "8 mi SW of Prescott AZ": https://www.fs.fed.us/rm/boise/AWAE/labs/awae_flagstaff/highlands/watersheds/whitespar/wsdescription.html. Treatment period is also a guess based on descriptions</t>
+  </si>
+  <si>
+    <t>The years were based on Swank et al. 1988 and the overview of the LTER dataset Miniat et al. 2021:  https://doi.org/10.1002/hyp.14302. Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVE? Swank and Douglas, 1974 does not mention watershed #3, only WS#1 and WS#17, i.e. similar to Swank and Miner. Unclear where the detail for WS#3 is. In fact, Miniat et al (2021) does not mention WS#3 as part of the paired watersheds. In addition, this website (https://coweeta.uga.edu/Watersheds.html) mention clear cut in 1940 grazing and replanting, but no actual experimental design. Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf. </t>
+  </si>
+  <si>
+    <t>The years were based on Swank et al. 1988 and the overview of the LTER dataset Miniat et al. 2021:  https://doi.org/10.1002/hyp.14302 Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
+  </si>
+  <si>
+    <t>There is no "Swank and Miner, 1966" in the references, assuming this is also "Swank and Miner, 1968" Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
+  </si>
+  <si>
+    <t>Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
+  </si>
+  <si>
+    <t>Better reference is Swift and Swank (1981) Hydrological Sciences Bulletin, 26:3, 245-256, DOI: 10.1080/02626668109490884. This is the journal paper based on the cited conference paper. Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">TVA 1961 is not in the references in Zhang et al. 2017, clearly this is from the secondary source Bosch &amp; Hewlett (1982). Original reference (Forest cover improvement influences upon hydrologic characteristics of White Hollow watershed 1935--58. ) is not accessible. Location estimated from map in: 	
@@ -2384,38 +2509,31 @@
     <t>TVA 1961 is not in the references in Zhang et al. 2017, clearly this is from the secondary source Bosch &amp; Hewlett (1982). Original reference (Forest cover improvement influences upon hydrologic characteristics of White Hollow watershed 1935--58. ) is not accessible. Location estimate is very rough, based on indication of "union county Tennessee" in https://onlinelibrary.wiley.com/doi/epdf/10.1111/j.1752-1688.1968.tb02933.x</t>
   </si>
   <si>
+    <t>Same catchment as 85, but older study. Authors are "van der Zel and Kruger". Original paper not accessible. Coordinates from supplementary material S1 in Slingsby, JA, de Buys, A, Simmers, ADA, et al. Jonkershoek: Africa's oldest catchment experiment - 80 years and counting. Hydrological Processes. 2021; 35:e14101. https://doi.org/10.1002/hyp.14101. Dates guessed from description of treatments in Slingsby et al supplementary material.</t>
+  </si>
+  <si>
     <t>Van Haveren (1988) does not give coordinates, but one of the original Bates and Hendry (1921)papers does: https://doi.org/10.1175/1520-0493(1921)49&lt;637:SAWWGC&gt;2.0.CO;2</t>
   </si>
   <si>
-    <t>Better reference is Swift and Swank (1981) Hydrological Sciences Bulletin, 26:3, 245-256, DOI: 10.1080/02626668109490884. This is the journal paper based on the cited conference paper. Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
-  </si>
-  <si>
-    <t>There is no "Swank and Miner, 1966" in the references, assuming this is also "Swank and Miner, 1968" Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
-  </si>
-  <si>
-    <t>Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
-  </si>
-  <si>
-    <t>The years were based on Swank et al. 1988 and the overview of the LTER dataset Miniat et al. 2021:  https://doi.org/10.1002/hyp.14302. Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
-  </si>
-  <si>
-    <t>The years were based on Swank et al. 1988 and the overview of the LTER dataset Miniat et al. 2021:  https://doi.org/10.1002/hyp.14302 Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf</t>
-  </si>
-  <si>
-    <t>Location guessed based on description "8 mi SW of Prescott AZ": https://www.fs.fed.us/rm/boise/AWAE/labs/awae_flagstaff/highlands/watersheds/whitespar/wsdescription.html. Treatment period is also a guess based on descriptions</t>
-  </si>
-  <si>
-    <t>Copy of #63?</t>
-  </si>
-  <si>
-    <t>Location based on statement: about 22 km northwest of Elgin and 8 km
-southwest of the Spout Springs Winter Recreation Area in https://www.fs.fed.us/pnw/pubs/pnw_rn361.pdf</t>
-  </si>
-  <si>
-    <t>Author gives only one location for 192 and 231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVE? Swank and Douglas, 1974 does not mention watershed #3, only WS#1 and WS#17, i.e. similar to Swank and Miner. Unclear where the detail for WS#3 is. In fact, Miniat et al (2021) does not mention WS#3 as part of the paired watersheds. In addition, this website (https://coweeta.uga.edu/Watersheds.html) mention clear cut in 1940 grazing and replanting, but no actual experimental design. Approximate location from this paper: Elliot and Swank (1994) Journal of Vegetation Science 5: 229-236 https://srs.fs.usda.gov/pubs/ja/ja_elliott022.pdf. </t>
+    <t>The paper suggests a change in cover of 85% and also a negative value, not a positive. It also is not totally clear how the delta Q is calculated, presumably from Table 4 in the paper. Ths study period is also very short</t>
+  </si>
+  <si>
+    <t>159, 160, 165, 239, 240 and 268 are all Yambulla state forest. The location details refer to the overall location not the individual catchments</t>
+  </si>
+  <si>
+    <t>see 240. 159, 160, 165, 239, 240 and 268 are all Yambulla state forest. The location details refer to the overall location not the individual catchments</t>
+  </si>
+  <si>
+    <t>This and 239 are the same catchment but two different logging events</t>
+  </si>
+  <si>
+    <t>location data from https://waterdata.usgs.gov/nwis/inventory/?site_no=50071000&amp;agency_cd=USGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area seems incorrect. Paper says 29.3 ha within a larger 610 km2 area, but all modelling is only for the 29.3 ha </t>
+  </si>
+  <si>
+    <t>Abdul Rahuim 1986, 1989, 1990, site 12, Bukit Berembun, Malaysia</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2543,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2496,13 +2614,25 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2518,6 +2648,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2573,7 +2715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2656,10 +2798,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2987,26 +3157,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A58" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
   <cols>
     <col min="1" max="10" width="8.77734375" style="17"/>
     <col min="11" max="11" width="17.77734375" style="17" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" style="20" customWidth="1"/>
-    <col min="16" max="16" width="65.44140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="17"/>
+    <col min="14" max="14" width="6.21875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" style="18" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" style="17" customWidth="1"/>
+    <col min="21" max="16384" width="8.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="52.95" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3026,10 +3199,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>8</v>
@@ -3041,25 +3214,34 @@
         <v>11</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>578</v>
-      </c>
       <c r="Q1" s="19" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="51">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3100,19 +3282,29 @@
         <v>-51.149718999999997</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="O2" s="18">
+        <v>1976</v>
+      </c>
+      <c r="P2" s="18">
+        <v>1978</v>
+      </c>
+      <c r="Q2" s="18">
+        <f>P2-O2</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="20.399999999999999">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3153,19 +3345,29 @@
         <v>-35</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O3" s="18">
+        <v>1970</v>
+      </c>
+      <c r="P3" s="18">
+        <v>1990</v>
+      </c>
+      <c r="Q3" s="18">
+        <f t="shared" ref="Q3:Q62" si="0">P3-O3</f>
+        <v>20</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3206,19 +3408,29 @@
         <v>103</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="101.55" customHeight="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="O4" s="18">
+        <v>1970</v>
+      </c>
+      <c r="P4" s="18">
+        <v>1996</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="101.55" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3259,16 +3471,26 @@
         <v>106.01</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O5" s="18">
+        <v>1981</v>
+      </c>
+      <c r="P5" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.95" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3309,19 +3531,29 @@
         <v>-121.74717099999999</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1950</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1955</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="28.95" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3362,16 +3594,26 @@
         <v>42</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1963</v>
+      </c>
+      <c r="P7" s="18">
+        <v>2007</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="28.95" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3406,22 +3648,32 @@
         <v>36</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M8" s="14">
         <v>-121.783788</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1969</v>
+      </c>
+      <c r="P8" s="18">
+        <v>1979</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="28.95" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3462,16 +3714,26 @@
         <v>145.14536200000001</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1970</v>
+      </c>
+      <c r="P9" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="28.95" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3503,7 +3765,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L10" s="14">
         <v>37.5</v>
@@ -3512,19 +3774,29 @@
         <v>110</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O10" s="18">
+        <v>1959</v>
+      </c>
+      <c r="P10" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="28.95" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3565,16 +3837,26 @@
         <v>146.38759999999999</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O11" s="18">
+        <v>1960</v>
+      </c>
+      <c r="P11" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="28.95" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3615,16 +3897,26 @@
         <v>-72</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1962</v>
+      </c>
+      <c r="P12" s="18">
+        <v>2005</v>
+      </c>
+      <c r="Q12" s="18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="28.95" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3665,69 +3957,89 @@
         <v>102</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+        <v>577</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1988</v>
+      </c>
+      <c r="P13" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="37" customFormat="1" ht="67.05" customHeight="1">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="35">
         <v>1304</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="35">
         <v>433.1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="35">
         <v>19</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="35">
         <v>-29</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="L14" s="14">
+      <c r="K14" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="L14" s="36">
         <v>38</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="36">
         <v>112</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="O14" s="37">
+        <v>1959</v>
+      </c>
+      <c r="P14" s="37">
+        <v>2000</v>
+      </c>
+      <c r="Q14" s="37">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="28.95" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3768,16 +4080,26 @@
         <v>113.82366500000001</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1997</v>
+      </c>
+      <c r="P15" s="18">
+        <v>2008</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="58.5" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3809,7 +4131,7 @@
         <v>40</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L16" s="14">
         <v>39</v>
@@ -3818,16 +4140,26 @@
         <v>111</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="O16" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="P16" s="18" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="18">
+        <v>1959</v>
+      </c>
+      <c r="P16" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="28.95" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3868,19 +4200,24 @@
         <v>-67.126231000000004</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O17" s="20">
+        <v>580</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="18">
+        <v>1</v>
+      </c>
+      <c r="R17" s="20">
         <v>2000</v>
       </c>
-      <c r="P17" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="T17" s="38" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="69.45" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3912,7 +4249,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L18" s="14">
         <v>37.5</v>
@@ -3921,16 +4258,26 @@
         <v>110</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="P18" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1957</v>
+      </c>
+      <c r="P18" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R18" s="20" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="18" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="28.95" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3971,16 +4318,26 @@
         <v>-69.428865000000002</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1950</v>
+      </c>
+      <c r="P19" s="18">
+        <v>1999</v>
+      </c>
+      <c r="Q19" s="18">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="28.95" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4021,16 +4378,26 @@
         <v>99.333332999999996</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O20" s="18">
+        <v>1974</v>
+      </c>
+      <c r="P20" s="18">
+        <v>2006</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="28.95" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4071,16 +4438,26 @@
         <v>102</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1975</v>
+      </c>
+      <c r="P21" s="18">
+        <v>2006</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="217.5" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4112,7 +4489,7 @@
         <v>40</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L22" s="14">
         <v>40</v>
@@ -4121,16 +4498,26 @@
         <v>110</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O22" s="18">
+        <v>1957</v>
+      </c>
+      <c r="P22" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="28.95" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4171,19 +4558,29 @@
         <v>74.569999999999993</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O23" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="O23" s="18">
+        <v>1994</v>
+      </c>
+      <c r="P23" s="18">
+        <v>1996</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="T23" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="P23" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:20" ht="28.95" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4224,19 +4621,29 @@
         <v>64.45</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="P24" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="O24" s="39">
+        <v>1995</v>
+      </c>
+      <c r="P24" s="39">
+        <v>1996</v>
+      </c>
+      <c r="Q24" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="Q24" s="17" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="28.95" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4277,19 +4684,28 @@
         <v>-75</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="O25" s="39">
+        <v>1996</v>
+      </c>
+      <c r="P25" s="39">
+        <v>1996</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>1</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="28.95" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4330,19 +4746,29 @@
         <v>74.86</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="O26" s="18">
+        <v>1996</v>
+      </c>
+      <c r="P26" s="18">
+        <v>1997</v>
+      </c>
+      <c r="Q26" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="28.95" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4381,16 +4807,26 @@
         <v>146.41505900000001</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O27" s="18">
+        <v>1988</v>
+      </c>
+      <c r="P27" s="18">
+        <v>1998</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="28.95" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4431,16 +4867,26 @@
         <v>47.95</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="29.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="O28" s="18">
+        <v>1996</v>
+      </c>
+      <c r="P28" s="18">
+        <v>1998</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="29.55" customHeight="1" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4479,16 +4925,26 @@
         <v>147.78577000000001</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O29" s="18">
+        <v>1988</v>
+      </c>
+      <c r="P29" s="18">
+        <v>1999</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="28.95" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4529,16 +4985,26 @@
         <v>-62.310093999999999</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O30" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O30" s="18">
+        <v>1950</v>
+      </c>
+      <c r="P30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="58.05" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4579,16 +5045,26 @@
         <v>116</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O31" s="18">
+        <v>1968</v>
+      </c>
+      <c r="P31" s="18">
+        <v>1984</v>
+      </c>
+      <c r="Q31" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="58.05" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4629,16 +5105,26 @@
         <v>116</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O32" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="292.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O32" s="18">
+        <v>1985</v>
+      </c>
+      <c r="P32" s="18">
+        <v>2006</v>
+      </c>
+      <c r="Q32" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="46.5" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4679,19 +5165,29 @@
         <v>117</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O33" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="P33" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O33" s="18">
+        <v>1956</v>
+      </c>
+      <c r="P33" s="18">
+        <v>1983</v>
+      </c>
+      <c r="Q33" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="28.95" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4732,16 +5228,26 @@
         <v>-115</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O34" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O34" s="18">
+        <v>1986</v>
+      </c>
+      <c r="P34" s="18">
+        <v>1993</v>
+      </c>
+      <c r="Q34" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="28.95" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4780,13 +5286,23 @@
         <v>144.31499099999999</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O35" s="18">
+        <v>1988</v>
+      </c>
+      <c r="P35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q35" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="28.95" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4825,13 +5341,23 @@
         <v>146.58919499999999</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O36" s="18">
+        <v>1988</v>
+      </c>
+      <c r="P36" s="18">
+        <v>20001</v>
+      </c>
+      <c r="Q36" s="18">
+        <f t="shared" si="0"/>
+        <v>18013</v>
+      </c>
+      <c r="R36" s="20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="28.95" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4872,16 +5398,26 @@
         <v>105.05812</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O37" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O37" s="18">
+        <v>1970</v>
+      </c>
+      <c r="P37" s="18">
+        <v>1988</v>
+      </c>
+      <c r="Q37" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R37" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="19.95" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4922,13 +5458,18 @@
         <v>-77.984307000000001</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O38" s="20">
+        <v>580</v>
+      </c>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39">
+        <v>1</v>
+      </c>
+      <c r="R38" s="40">
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="28.95" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4969,16 +5510,26 @@
         <v>-122.5</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q39" s="22" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O39" s="39">
+        <v>1883</v>
+      </c>
+      <c r="P39" s="18">
+        <v>2002</v>
+      </c>
+      <c r="Q39" s="18">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="T39" s="22" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="28.95" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5019,13 +5570,23 @@
         <v>-66.358485000000002</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O40" s="18">
+        <v>1950</v>
+      </c>
+      <c r="P40" s="18">
+        <v>2001</v>
+      </c>
+      <c r="Q40" s="18">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="R40" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="28.95" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5066,16 +5627,26 @@
         <v>2.9997159999999998</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q41" s="22" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O41" s="18">
+        <v>1979</v>
+      </c>
+      <c r="P41" s="18">
+        <v>1993</v>
+      </c>
+      <c r="Q41" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="T41" s="22" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="71.55" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5107,7 +5678,7 @@
         <v>40</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L42" s="14">
         <v>37</v>
@@ -5116,16 +5687,26 @@
         <v>111</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O42" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="O42" s="18">
+        <v>1957</v>
+      </c>
+      <c r="P42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q42" s="18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R42" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="S42" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="P42" s="18" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:20" ht="75" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5157,7 +5738,7 @@
         <v>40</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L43" s="14">
         <v>35</v>
@@ -5166,16 +5747,26 @@
         <v>110</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="72.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O43" s="18">
+        <v>1959</v>
+      </c>
+      <c r="P43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q43" s="18">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R43" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="S43" s="18" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="45.45" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5216,16 +5807,21 @@
         <v>-66.321481000000006</v>
       </c>
       <c r="N44" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="18">
+        <v>1</v>
+      </c>
+      <c r="R44" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S44" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="O44" s="20">
-        <v>2000</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:20" ht="49.95" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5266,16 +5862,21 @@
         <v>-66.321481000000006</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O45" s="20">
+        <v>580</v>
+      </c>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="18">
+        <v>1</v>
+      </c>
+      <c r="R45" s="40">
         <v>2000</v>
       </c>
-      <c r="P45" s="18" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="47.55" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5316,16 +5917,21 @@
         <v>102.52542200000001</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O46" s="20">
+        <v>580</v>
+      </c>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="18">
+        <v>1</v>
+      </c>
+      <c r="R46" s="40">
         <v>1995</v>
       </c>
-      <c r="Q46" s="22" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T46" s="22" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="28.95" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5366,19 +5972,29 @@
         <v>1.1273260000000001</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O47" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="P47" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q47" s="17" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O47" s="18">
+        <v>1965</v>
+      </c>
+      <c r="P47" s="18">
+        <v>2009</v>
+      </c>
+      <c r="Q47" s="18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R47" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="S47" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="58.05" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5419,16 +6035,21 @@
         <v>-56.925654999999999</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O48" s="20">
+        <v>580</v>
+      </c>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="18">
+        <v>1</v>
+      </c>
+      <c r="R48" s="40">
         <v>2000</v>
       </c>
-      <c r="P48" s="18" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="87" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5469,19 +6090,29 @@
         <v>108.83333333333333</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O49" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O49" s="18">
+        <v>1958</v>
+      </c>
+      <c r="P49" s="18">
+        <v>2008</v>
+      </c>
+      <c r="Q49" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R49" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="S49" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="28.95" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5522,16 +6153,26 @@
         <v>-48</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O50" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O50" s="18">
+        <v>1960</v>
+      </c>
+      <c r="P50" s="18">
+        <v>1995</v>
+      </c>
+      <c r="Q50" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="43.5" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5572,19 +6213,29 @@
         <v>-55.68333333333333</v>
       </c>
       <c r="N51" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="O51" s="18">
+        <v>1975</v>
+      </c>
+      <c r="P51" s="18">
+        <v>1993</v>
+      </c>
+      <c r="Q51" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R51" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="S51" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="O51" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="115.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T51" s="17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="115.95" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5625,19 +6276,29 @@
         <v>103</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O52" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="P52" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q52" s="17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="30.6" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O52" s="18">
+        <v>1970</v>
+      </c>
+      <c r="P52" s="18">
+        <v>1996</v>
+      </c>
+      <c r="Q52" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R52" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="S52" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="T52" s="17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="30.6">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5678,16 +6339,26 @@
         <v>100</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="O53" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="O53" s="18">
+        <v>1980</v>
+      </c>
+      <c r="P53" s="18">
+        <v>2010</v>
+      </c>
+      <c r="Q53" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R53" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="28.95" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5726,13 +6397,23 @@
         <v>147.299948</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O54" s="20" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="O54" s="18">
+        <v>1988</v>
+      </c>
+      <c r="P54" s="18">
+        <v>2002</v>
+      </c>
+      <c r="Q54" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R54" s="20" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="69.45" customHeight="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5764,7 +6445,7 @@
         <v>40</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L55" s="14">
         <v>37.5</v>
@@ -5773,16 +6454,26 @@
         <v>111</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O55" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="P55" s="18" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O55" s="18">
+        <v>1956</v>
+      </c>
+      <c r="P55" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q55" s="18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="S55" s="18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="28.95" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5823,16 +6514,26 @@
         <v>54.2</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O56" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="O56" s="18">
+        <v>1953</v>
+      </c>
+      <c r="P56" s="18">
+        <v>2003</v>
+      </c>
+      <c r="Q56" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R56" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="28.95" customHeight="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5873,16 +6574,26 @@
         <v>109.849656</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O57" s="18">
+        <v>1960</v>
+      </c>
+      <c r="P57" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q57" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R57" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="28.95" customHeight="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5921,16 +6632,26 @@
         <v>110.66666666666667</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O58" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="O58" s="18">
+        <v>1987</v>
+      </c>
+      <c r="P58" s="18">
+        <v>2007</v>
+      </c>
+      <c r="Q58" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R58" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="T58" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="28.95" customHeight="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5971,16 +6692,26 @@
         <v>128.69999999999999</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="O59" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q59" s="17" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="O59" s="18">
+        <v>1970</v>
+      </c>
+      <c r="P59" s="18">
+        <v>2010</v>
+      </c>
+      <c r="Q59" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R59" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="T59" s="17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="19.95" customHeight="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6021,13 +6752,18 @@
         <v>-52.655372</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="O60" s="20">
+        <v>580</v>
+      </c>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="18">
+        <v>1</v>
+      </c>
+      <c r="R60" s="40">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="44.55" customHeight="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6059,7 +6795,7 @@
         <v>40</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L61" s="14">
         <v>38</v>
@@ -6068,16 +6804,26 @@
         <v>111</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O61" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="P61" s="18" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="217.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="O61" s="18">
+        <v>1957</v>
+      </c>
+      <c r="P61" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q61" s="18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="R61" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="S61" s="18" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="48.45" customHeight="1" thickBot="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6109,7 +6855,7 @@
         <v>40</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L62" s="16">
         <v>36</v>
@@ -6118,25 +6864,36 @@
         <v>110</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="O62" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="P62" s="18" t="s">
-        <v>636</v>
+        <v>577</v>
+      </c>
+      <c r="O62" s="18">
+        <v>1959</v>
+      </c>
+      <c r="P62" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Q62" s="18">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R62" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="S62" s="18" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q32" r:id="rId1" xr:uid="{23DE18DC-D44C-43CC-94E5-CEE2FC90B940}"/>
-    <hyperlink ref="Q46" r:id="rId2" xr:uid="{C60F9A0D-0653-4D22-B710-6E6773C82E97}"/>
-    <hyperlink ref="Q33" r:id="rId3" xr:uid="{3861CA0F-56B3-44D5-8EFC-519024276F1F}"/>
-    <hyperlink ref="Q41" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{7C639B5C-E93A-4968-A7C1-5C3E30330087}"/>
-    <hyperlink ref="Q39" r:id="rId5" xr:uid="{F87A79A6-8FDD-415F-A980-80C7620D775F}"/>
+    <hyperlink ref="T32" r:id="rId1" xr:uid="{23DE18DC-D44C-43CC-94E5-CEE2FC90B940}"/>
+    <hyperlink ref="T46" r:id="rId2" xr:uid="{C60F9A0D-0653-4D22-B710-6E6773C82E97}"/>
+    <hyperlink ref="T33" r:id="rId3" xr:uid="{3861CA0F-56B3-44D5-8EFC-519024276F1F}"/>
+    <hyperlink ref="T41" r:id="rId4" tooltip="Persistent link using digital object identifier" xr:uid="{7C639B5C-E93A-4968-A7C1-5C3E30330087}"/>
+    <hyperlink ref="T39" r:id="rId5" xr:uid="{F87A79A6-8FDD-415F-A980-80C7620D775F}"/>
+    <hyperlink ref="T17" r:id="rId6" xr:uid="{EB0BBEE7-A68B-45FE-B8FB-68534163161D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6144,26 +6901,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628113C-78B0-4B5D-8B46-887DA17257C6}">
   <dimension ref="A1:T252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="Q74" sqref="Q74"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="4" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.21875" customWidth="1"/>
     <col min="15" max="15" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21.45" customHeight="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6189,7 +6943,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>10</v>
@@ -6198,31 +6952,31 @@
         <v>11</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Q1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="R1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30.6">
       <c r="A2" s="6">
         <v>158</v>
       </c>
@@ -6265,15 +7019,15 @@
       </c>
       <c r="O2" s="26"/>
       <c r="P2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C3" s="2">
         <v>2.89</v>
@@ -6300,7 +7054,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3">
@@ -6311,7 +7065,7 @@
       </c>
       <c r="O3" s="26"/>
       <c r="P3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="Q3">
         <v>1955</v>
@@ -6320,15 +7074,15 @@
         <v>1980</v>
       </c>
       <c r="S3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>265</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C4" s="2">
         <v>2.89</v>
@@ -6355,7 +7109,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4">
@@ -6366,7 +7120,7 @@
       </c>
       <c r="O4" s="26"/>
       <c r="P4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Q4">
         <v>1955</v>
@@ -6375,10 +7129,10 @@
         <v>1980</v>
       </c>
       <c r="S4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>157</v>
       </c>
@@ -6421,7 +7175,7 @@
       </c>
       <c r="O5" s="26"/>
       <c r="P5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="Q5">
         <v>1955</v>
@@ -6430,10 +7184,10 @@
         <v>1980</v>
       </c>
       <c r="S5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>153</v>
       </c>
@@ -6476,7 +7230,7 @@
       </c>
       <c r="O6" s="26"/>
       <c r="P6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="Q6">
         <v>1955</v>
@@ -6485,10 +7239,10 @@
         <v>1980</v>
       </c>
       <c r="S6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>156</v>
       </c>
@@ -6531,7 +7285,7 @@
       </c>
       <c r="O7" s="26"/>
       <c r="P7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Q7">
         <v>1955</v>
@@ -6540,10 +7294,10 @@
         <v>1980</v>
       </c>
       <c r="S7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="20.399999999999999">
       <c r="A8" s="2">
         <v>124</v>
       </c>
@@ -6592,10 +7346,10 @@
         <v>2007</v>
       </c>
       <c r="S8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>76</v>
       </c>
@@ -6638,7 +7392,7 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="Q9">
         <v>1958</v>
@@ -6647,10 +7401,10 @@
         <v>1969</v>
       </c>
       <c r="S9" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>210</v>
       </c>
@@ -6699,10 +7453,10 @@
         <v>1991</v>
       </c>
       <c r="S10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="9">
         <v>90</v>
       </c>
@@ -6749,7 +7503,7 @@
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Q11">
         <v>1980</v>
@@ -6758,10 +7512,10 @@
         <v>1984</v>
       </c>
       <c r="S11" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <v>199</v>
       </c>
@@ -6808,7 +7562,7 @@
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Q12">
         <v>1986</v>
@@ -6817,15 +7571,15 @@
         <v>1990</v>
       </c>
       <c r="S12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="9">
         <v>256</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C13" s="9">
         <v>104</v>
@@ -6867,7 +7621,7 @@
         <v>5</v>
       </c>
       <c r="P13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Q13">
         <v>1986</v>
@@ -6876,15 +7630,15 @@
         <v>1990</v>
       </c>
       <c r="S13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="2">
         <v>257</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C14" s="2">
         <v>130</v>
@@ -6926,7 +7680,7 @@
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Q14">
         <v>1986</v>
@@ -6935,15 +7689,15 @@
         <v>1990</v>
       </c>
       <c r="S14" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="20.399999999999999">
       <c r="A15" s="2">
         <v>292</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C15" s="2">
         <v>0.81</v>
@@ -6970,7 +7724,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15">
@@ -6989,10 +7743,10 @@
         <v>1926</v>
       </c>
       <c r="S15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="2">
         <v>73</v>
       </c>
@@ -7036,20 +7790,23 @@
       <c r="O16" s="26">
         <v>28</v>
       </c>
-      <c r="P16" t="s">
-        <v>742</v>
+      <c r="P16" s="10" t="s">
+        <v>741</v>
       </c>
       <c r="Q16">
         <v>1970</v>
       </c>
       <c r="R16" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="S16" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T16" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="2">
         <v>89</v>
       </c>
@@ -7093,8 +7850,8 @@
       <c r="O17" s="26">
         <v>32</v>
       </c>
-      <c r="P17" t="s">
-        <v>706</v>
+      <c r="P17" s="10" t="s">
+        <v>703</v>
       </c>
       <c r="Q17">
         <v>1968</v>
@@ -7103,10 +7860,13 @@
         <v>2000</v>
       </c>
       <c r="S17" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="2">
         <v>97</v>
       </c>
@@ -7150,8 +7910,8 @@
       <c r="O18" s="26">
         <v>30</v>
       </c>
-      <c r="P18" t="s">
-        <v>707</v>
+      <c r="P18" s="10" t="s">
+        <v>704</v>
       </c>
       <c r="Q18">
         <v>1970</v>
@@ -7160,10 +7920,13 @@
         <v>2000</v>
       </c>
       <c r="S18" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T18" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="2">
         <v>123</v>
       </c>
@@ -7207,8 +7970,8 @@
       <c r="O19" s="26">
         <v>32</v>
       </c>
-      <c r="P19" t="s">
-        <v>708</v>
+      <c r="P19" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="Q19">
         <v>1968</v>
@@ -7217,10 +7980,13 @@
         <v>2000</v>
       </c>
       <c r="S19" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="2">
         <v>132</v>
       </c>
@@ -7264,8 +8030,8 @@
       <c r="O20" s="26">
         <v>38</v>
       </c>
-      <c r="P20" t="s">
-        <v>739</v>
+      <c r="P20" s="10" t="s">
+        <v>738</v>
       </c>
       <c r="Q20">
         <v>1962</v>
@@ -7274,10 +8040,13 @@
         <v>2000</v>
       </c>
       <c r="S20" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="2">
         <v>161</v>
       </c>
@@ -7321,8 +8090,8 @@
       <c r="O21" s="26">
         <v>40</v>
       </c>
-      <c r="P21" t="s">
-        <v>740</v>
+      <c r="P21" s="10" t="s">
+        <v>739</v>
       </c>
       <c r="Q21">
         <v>1960</v>
@@ -7331,10 +8100,13 @@
         <v>2000</v>
       </c>
       <c r="S21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="2">
         <v>162</v>
       </c>
@@ -7378,8 +8150,8 @@
       <c r="O22" s="26">
         <v>43</v>
       </c>
-      <c r="P22" t="s">
-        <v>709</v>
+      <c r="P22" s="10" t="s">
+        <v>706</v>
       </c>
       <c r="Q22">
         <v>1957</v>
@@ -7388,10 +8160,13 @@
         <v>2000</v>
       </c>
       <c r="S22" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T22" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="2">
         <v>163</v>
       </c>
@@ -7435,8 +8210,8 @@
       <c r="O23" s="26">
         <v>34</v>
       </c>
-      <c r="P23" t="s">
-        <v>710</v>
+      <c r="P23" s="10" t="s">
+        <v>707</v>
       </c>
       <c r="Q23">
         <v>1966</v>
@@ -7445,10 +8220,13 @@
         <v>2000</v>
       </c>
       <c r="S23" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="2">
         <v>181</v>
       </c>
@@ -7492,8 +8270,8 @@
       <c r="O24" s="26">
         <v>35</v>
       </c>
-      <c r="P24" t="s">
-        <v>741</v>
+      <c r="P24" s="10" t="s">
+        <v>740</v>
       </c>
       <c r="Q24">
         <v>1965</v>
@@ -7502,15 +8280,18 @@
         <v>2000</v>
       </c>
       <c r="S24" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="2">
         <v>244</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C25" s="2">
         <v>22.9</v>
@@ -7549,8 +8330,8 @@
       <c r="O25" s="26">
         <v>35</v>
       </c>
-      <c r="P25" t="s">
-        <v>711</v>
+      <c r="P25" s="10" t="s">
+        <v>708</v>
       </c>
       <c r="Q25">
         <v>1965</v>
@@ -7559,15 +8340,18 @@
         <v>2000</v>
       </c>
       <c r="S25" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T25" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="2">
         <v>271</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C26" s="2">
         <v>47.1</v>
@@ -7606,8 +8390,8 @@
       <c r="O26" s="26">
         <v>40</v>
       </c>
-      <c r="P26" t="s">
-        <v>713</v>
+      <c r="P26" s="10" t="s">
+        <v>710</v>
       </c>
       <c r="Q26">
         <v>1960</v>
@@ -7616,15 +8400,18 @@
         <v>2000</v>
       </c>
       <c r="S26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="T26" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="2">
         <v>283</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C27" s="2">
         <v>41.5</v>
@@ -7663,8 +8450,8 @@
       <c r="O27" s="26">
         <v>29</v>
       </c>
-      <c r="P27" t="s">
-        <v>712</v>
+      <c r="P27" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="Q27">
         <v>1971</v>
@@ -7673,10 +8460,13 @@
         <v>2000</v>
       </c>
       <c r="S27" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+      <c r="T27" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" thickBot="1">
       <c r="A28" s="2">
         <v>129</v>
       </c>
@@ -7721,7 +8511,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q28" s="31">
         <v>1962</v>
@@ -7731,7 +8521,7 @@
       </c>
       <c r="S28" s="31"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" s="2">
         <v>131</v>
       </c>
@@ -7781,15 +8571,15 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
       <c r="S29" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" thickBot="1">
       <c r="A30" s="4">
         <v>224</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" s="4">
         <v>36.299999999999997</v>
@@ -7816,7 +8606,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30">
@@ -7829,7 +8619,7 @@
         <v>54</v>
       </c>
       <c r="P30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q30">
         <v>1954</v>
@@ -7838,7 +8628,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" s="2">
         <v>70</v>
       </c>
@@ -7883,7 +8673,7 @@
         <v>6</v>
       </c>
       <c r="P31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q31">
         <v>1983</v>
@@ -7892,12 +8682,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" s="2">
         <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C32" s="2">
         <v>7.7</v>
@@ -7937,7 +8727,7 @@
         <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q32">
         <v>1983</v>
@@ -7946,7 +8736,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="2">
         <v>168</v>
       </c>
@@ -7987,8 +8777,11 @@
       <c r="N33">
         <v>-78.892207999999997</v>
       </c>
+      <c r="O33" s="26">
+        <v>7</v>
+      </c>
       <c r="P33" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q33">
         <v>2007</v>
@@ -7997,7 +8790,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="2">
         <v>169</v>
       </c>
@@ -8038,6 +8831,9 @@
       <c r="N34">
         <v>-78.892207999999997</v>
       </c>
+      <c r="O34" s="26">
+        <v>7</v>
+      </c>
       <c r="Q34">
         <v>2007</v>
       </c>
@@ -8045,7 +8841,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" s="2">
         <v>170</v>
       </c>
@@ -8086,8 +8882,11 @@
       <c r="N35">
         <v>-78.808556999999993</v>
       </c>
+      <c r="O35" s="26">
+        <v>7</v>
+      </c>
       <c r="P35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q35">
         <v>2007</v>
@@ -8096,7 +8895,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="2">
         <v>171</v>
       </c>
@@ -8137,6 +8936,9 @@
       <c r="N36">
         <v>-78.808556999999993</v>
       </c>
+      <c r="O36" s="26">
+        <v>7</v>
+      </c>
       <c r="Q36">
         <v>2007</v>
       </c>
@@ -8144,12 +8946,12 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" s="2">
         <v>274</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C37" s="2">
         <v>1.964</v>
@@ -8176,7 +8978,7 @@
         <v>26</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="12">
@@ -8189,7 +8991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="20.399999999999999">
       <c r="A38" s="2">
         <v>77</v>
       </c>
@@ -8234,7 +9036,7 @@
       </c>
       <c r="O38" s="31"/>
       <c r="P38" s="31" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="Q38" s="31">
         <v>1948</v>
@@ -8243,10 +9045,10 @@
         <v>1963</v>
       </c>
       <c r="S38" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="20.399999999999999">
       <c r="A39" s="2">
         <v>102</v>
       </c>
@@ -8289,15 +9091,15 @@
       </c>
       <c r="O39" s="31"/>
       <c r="P39" s="31" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="20.399999999999999">
       <c r="A40" s="2">
         <v>117</v>
       </c>
@@ -8332,8 +9134,29 @@
         <v>219</v>
       </c>
       <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="N40">
+        <v>-83.583332999999996</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q40">
+        <v>1970</v>
+      </c>
+      <c r="R40">
+        <v>1974</v>
+      </c>
+      <c r="S40" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="20.399999999999999">
       <c r="A41" s="2">
         <v>64</v>
       </c>
@@ -8383,7 +9206,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="20.399999999999999">
       <c r="A42" s="2">
         <v>65</v>
       </c>
@@ -8434,12 +9257,12 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="2">
         <v>251</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -8466,11 +9289,29 @@
         <v>16</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>-33.839837000000003</v>
+      </c>
+      <c r="N43">
+        <v>-110.95813</v>
+      </c>
+      <c r="O43">
+        <v>16</v>
+      </c>
+      <c r="P43" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q43">
+        <v>1953</v>
+      </c>
+      <c r="R43">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="20.399999999999999">
       <c r="A44" s="2">
         <v>94</v>
       </c>
@@ -8505,8 +9346,29 @@
         <v>178</v>
       </c>
       <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>-29</v>
+      </c>
+      <c r="N44">
+        <v>-29.25</v>
+      </c>
+      <c r="O44">
+        <v>8</v>
+      </c>
+      <c r="P44" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>752</v>
+      </c>
+      <c r="R44" t="s">
+        <v>753</v>
+      </c>
+      <c r="S44" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="2">
         <v>105</v>
       </c>
@@ -8541,13 +9403,31 @@
         <v>197</v>
       </c>
       <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>35.1</v>
+      </c>
+      <c r="N45">
+        <v>-83.716667000000001</v>
+      </c>
+      <c r="O45">
+        <v>9</v>
+      </c>
+      <c r="P45" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q45">
+        <v>2003</v>
+      </c>
+      <c r="R45">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="2">
         <v>241</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2">
         <v>0.52800000000000002</v>
@@ -8564,7 +9444,7 @@
       <c r="G46" s="2">
         <v>-100</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="27">
         <v>36</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -8574,16 +9454,32 @@
         <v>16</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="L46" s="27"/>
+      <c r="M46">
+        <v>-37.680224000000003</v>
+      </c>
+      <c r="N46">
+        <v>145.54478499999999</v>
+      </c>
+      <c r="O46">
+        <f>R46-Q46</f>
+        <v>28</v>
+      </c>
+      <c r="Q46">
+        <v>1968</v>
+      </c>
+      <c r="R46">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="2">
         <v>259</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2">
         <v>8.08</v>
@@ -8610,16 +9506,30 @@
         <v>16</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="L47" s="27"/>
+      <c r="M47">
+        <f>42+46/60+2/3600</f>
+        <v>42.767222222222223</v>
+      </c>
+      <c r="N47">
+        <f>-76-1/60-7/3600</f>
+        <v>-76.018611111111113</v>
+      </c>
+      <c r="O47">
+        <v>28</v>
+      </c>
+      <c r="P47" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="2">
         <v>270</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C48" s="2">
         <v>1.18</v>
@@ -8646,30 +9556,31 @@
         <v>16</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L48" s="27"/>
       <c r="M48">
-        <f>42+46/60+2/3600</f>
-        <v>42.767222222222223</v>
+        <f>36+51/60</f>
+        <v>36.85</v>
       </c>
       <c r="N48">
-        <f>-76-1/60-7/3600</f>
-        <v>-76.018611111111113</v>
+        <f>139+1/60</f>
+        <v>139.01666666666668</v>
       </c>
       <c r="O48">
-        <v>28</v>
+        <f>1981-1957</f>
+        <v>24</v>
       </c>
       <c r="P48" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="2">
         <v>278</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C49" s="2">
         <v>1.57</v>
@@ -8696,31 +9607,30 @@
         <v>16</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49">
-        <f>36+51/60</f>
-        <v>36.85</v>
+        <f>-33-57/60</f>
+        <v>-33.950000000000003</v>
       </c>
       <c r="N49">
-        <f>139+1/60</f>
-        <v>139.01666666666668</v>
+        <f>-18-15/60</f>
+        <v>-18.25</v>
       </c>
       <c r="O49">
-        <f>1981-1957</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P49" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="2">
         <v>295</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -8747,25 +9657,11 @@
         <v>16</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L50" s="27"/>
-      <c r="M50">
-        <f>-33-57/60</f>
-        <v>-33.950000000000003</v>
-      </c>
-      <c r="N50">
-        <f>-18-15/60</f>
-        <v>-18.25</v>
-      </c>
-      <c r="O50">
-        <v>8</v>
-      </c>
-      <c r="P50" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="2">
         <v>74</v>
       </c>
@@ -8799,9 +9695,27 @@
       <c r="K51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L51" s="34"/>
+      <c r="M51">
+        <v>34.574444</v>
+      </c>
+      <c r="N51">
+        <v>111.873611</v>
+      </c>
+      <c r="P51" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q51">
+        <v>1963</v>
+      </c>
+      <c r="R51" s="10">
+        <v>1969</v>
+      </c>
+      <c r="S51" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="33" customHeight="1">
       <c r="A52" s="2">
         <v>68</v>
       </c>
@@ -8832,12 +9746,12 @@
       <c r="J52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L52" s="32"/>
       <c r="P52" t="s">
-        <v>701</v>
+        <v>811</v>
       </c>
       <c r="Q52">
         <v>2005</v>
@@ -8846,7 +9760,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="20.55" customHeight="1">
       <c r="A53" s="2">
         <v>69</v>
       </c>
@@ -8880,9 +9794,9 @@
       <c r="K53" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L53" s="32"/>
+    </row>
+    <row r="54" spans="1:19" ht="51">
       <c r="A54" s="2">
         <v>128</v>
       </c>
@@ -8916,9 +9830,26 @@
       <c r="K54" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>2.6</v>
+      </c>
+      <c r="N54">
+        <v>102.1</v>
+      </c>
+      <c r="P54" s="32" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q54">
+        <v>1980</v>
+      </c>
+      <c r="R54">
+        <v>1983</v>
+      </c>
+      <c r="S54" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="2">
         <v>188</v>
       </c>
@@ -8952,9 +9883,11 @@
       <c r="K55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P55" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15" thickBot="1">
       <c r="A56" s="4">
         <v>189</v>
       </c>
@@ -8988,9 +9921,11 @@
       <c r="K56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P56" s="32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="2">
         <v>197</v>
       </c>
@@ -9024,9 +9959,11 @@
       <c r="K57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P57" s="32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="20.399999999999999">
       <c r="A58" s="9">
         <v>200</v>
       </c>
@@ -9060,14 +9997,16 @@
       <c r="K58" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P58" s="33" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="2">
         <v>252</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2">
         <v>0.377</v>
@@ -9096,14 +10035,16 @@
       <c r="K59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P59" s="32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="2">
         <v>253</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2">
         <v>0.59199999999999997</v>
@@ -9132,14 +10073,16 @@
       <c r="K60" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P60" s="32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="2">
         <v>254</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2">
         <v>7</v>
@@ -9168,9 +10111,11 @@
       <c r="K61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P61" s="32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="2">
         <v>130</v>
       </c>
@@ -9205,8 +10150,29 @@
         <v>242</v>
       </c>
       <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>42.548178</v>
+      </c>
+      <c r="N62">
+        <v>1.1582349999999999</v>
+      </c>
+      <c r="O62">
+        <v>44</v>
+      </c>
+      <c r="P62" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q62">
+        <v>1965</v>
+      </c>
+      <c r="R62">
+        <v>2009</v>
+      </c>
+      <c r="S62" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="2">
         <v>150</v>
       </c>
@@ -9241,13 +10207,34 @@
         <v>242</v>
       </c>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>42.254702999999999</v>
+      </c>
+      <c r="N63">
+        <v>0.97585999999999995</v>
+      </c>
+      <c r="O63">
+        <v>44</v>
+      </c>
+      <c r="P63" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q63">
+        <v>1965</v>
+      </c>
+      <c r="R63">
+        <v>2009</v>
+      </c>
+      <c r="S63" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="2">
         <v>249</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C64" s="2">
         <v>65</v>
@@ -9274,11 +10261,29 @@
         <v>21</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>42.025086999999999</v>
+      </c>
+      <c r="N64">
+        <v>1.3818509999999999</v>
+      </c>
+      <c r="O64">
+        <v>12</v>
+      </c>
+      <c r="Q64">
+        <v>2009</v>
+      </c>
+      <c r="R64">
+        <v>2013</v>
+      </c>
+      <c r="S64" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="20.399999999999999">
       <c r="A65" s="2">
         <v>204</v>
       </c>
@@ -9313,13 +10318,34 @@
         <v>62</v>
       </c>
       <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>48.55</v>
+      </c>
+      <c r="N65">
+        <v>-81.05</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q65">
+        <v>1985</v>
+      </c>
+      <c r="R65">
+        <v>1990</v>
+      </c>
+      <c r="S65" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="2">
         <v>216</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>376</v>
+        <v>764</v>
       </c>
       <c r="C66" s="2">
         <v>0.63</v>
@@ -9346,16 +10372,34 @@
         <v>16</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>-3.0296210000000001</v>
+      </c>
+      <c r="N66">
+        <v>-78.442110999999997</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2004</v>
+      </c>
+      <c r="R66">
+        <v>2005</v>
+      </c>
+      <c r="S66" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="20.399999999999999">
       <c r="A67" s="2">
         <v>285</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C67" s="2">
         <v>252</v>
@@ -9382,11 +10426,26 @@
         <v>21</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>41.857247000000001</v>
+      </c>
+      <c r="N67">
+        <v>-8.4242260000000009</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="Q67">
+        <v>2003</v>
+      </c>
+      <c r="R67">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="2">
         <v>88</v>
       </c>
@@ -9421,8 +10480,30 @@
         <v>168</v>
       </c>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>49.692988999999997</v>
+      </c>
+      <c r="N68">
+        <v>-120.011314</v>
+      </c>
+      <c r="O68">
+        <f>R68-Q68</f>
+        <v>12</v>
+      </c>
+      <c r="P68" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q68">
+        <v>1971</v>
+      </c>
+      <c r="R68">
+        <v>1983</v>
+      </c>
+      <c r="S68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="20.399999999999999">
       <c r="A69" s="2">
         <v>72</v>
       </c>
@@ -9472,10 +10553,10 @@
         <v>1999</v>
       </c>
       <c r="S69" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="20.399999999999999">
       <c r="A70" s="2">
         <v>83</v>
       </c>
@@ -9525,10 +10606,10 @@
         <v>1999</v>
       </c>
       <c r="S70" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="20.399999999999999">
       <c r="A71" s="2">
         <v>103</v>
       </c>
@@ -9578,10 +10659,10 @@
         <v>1999</v>
       </c>
       <c r="S71" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="20.399999999999999">
       <c r="A72" s="2">
         <v>182</v>
       </c>
@@ -9631,10 +10712,10 @@
         <v>1999</v>
       </c>
       <c r="S72" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="2">
         <v>191</v>
       </c>
@@ -9684,10 +10765,10 @@
         <v>1990</v>
       </c>
       <c r="S73" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="2">
         <v>100</v>
       </c>
@@ -9737,10 +10818,10 @@
         <v>1990</v>
       </c>
       <c r="S74" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="2">
         <v>84</v>
       </c>
@@ -9792,10 +10873,10 @@
         <v>2001</v>
       </c>
       <c r="S75" s="31" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="2">
         <v>205</v>
       </c>
@@ -9847,10 +10928,10 @@
         <v>2009</v>
       </c>
       <c r="S76" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="20.399999999999999">
       <c r="A77" s="2">
         <v>211</v>
       </c>
@@ -9893,7 +10974,7 @@
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
     </row>
-    <row r="78" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" s="2">
         <v>80</v>
       </c>
@@ -9935,8 +11016,8 @@
         <v>-118.155303331478</v>
       </c>
       <c r="O78" s="31"/>
-      <c r="P78" s="33" t="s">
-        <v>772</v>
+      <c r="P78" s="31" t="s">
+        <v>789</v>
       </c>
       <c r="Q78" s="31">
         <v>1976</v>
@@ -9945,10 +11026,10 @@
         <v>1982</v>
       </c>
       <c r="S78" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="2">
         <v>81</v>
       </c>
@@ -9990,8 +11071,8 @@
         <v>-118.155303331478</v>
       </c>
       <c r="O79" s="31"/>
-      <c r="P79" s="33" t="s">
-        <v>772</v>
+      <c r="P79" s="31" t="s">
+        <v>789</v>
       </c>
       <c r="Q79" s="31">
         <v>1976</v>
@@ -10000,10 +11081,10 @@
         <v>1982</v>
       </c>
       <c r="S79" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="2">
         <v>82</v>
       </c>
@@ -10045,8 +11126,8 @@
         <v>-118.155303331478</v>
       </c>
       <c r="O80" s="31"/>
-      <c r="P80" s="33" t="s">
-        <v>772</v>
+      <c r="P80" s="31" t="s">
+        <v>789</v>
       </c>
       <c r="Q80" s="31">
         <v>1976</v>
@@ -10055,10 +11136,10 @@
         <v>1982</v>
       </c>
       <c r="S80" s="31" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="2">
         <v>192</v>
       </c>
@@ -10103,7 +11184,7 @@
       </c>
       <c r="O81" s="31"/>
       <c r="P81" s="31" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="Q81" s="31">
         <v>1957</v>
@@ -10113,12 +11194,12 @@
       </c>
       <c r="S81" s="31"/>
     </row>
-    <row r="82" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19">
       <c r="A82" s="2">
         <v>231</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C82" s="2">
         <v>256</v>
@@ -10158,7 +11239,7 @@
       </c>
       <c r="O82" s="31"/>
       <c r="P82" s="31" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="Q82" s="31">
         <v>1957</v>
@@ -10167,15 +11248,15 @@
         <v>1993</v>
       </c>
       <c r="S82" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="20.399999999999999">
       <c r="A83" s="9">
         <v>287</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C83" s="9">
         <v>19.46</v>
@@ -10202,7 +11283,7 @@
         <v>16</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L83" s="28"/>
       <c r="M83" s="31">
@@ -10222,15 +11303,15 @@
         <v>2003</v>
       </c>
       <c r="S83" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="21" thickBot="1">
       <c r="A84" s="4">
         <v>288</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C84" s="4">
         <v>8.25</v>
@@ -10257,7 +11338,7 @@
         <v>16</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L84" s="28"/>
       <c r="M84" s="31">
@@ -10277,15 +11358,15 @@
         <v>2003</v>
       </c>
       <c r="S84" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="20.399999999999999">
       <c r="A85" s="2">
         <v>289</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2">
         <v>7.7</v>
@@ -10312,7 +11393,7 @@
         <v>16</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L85" s="28"/>
       <c r="M85" s="31">
@@ -10332,15 +11413,15 @@
         <v>2003</v>
       </c>
       <c r="S85" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="20.399999999999999">
       <c r="A86" s="2">
         <v>290</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C86" s="2">
         <v>8.64</v>
@@ -10367,7 +11448,7 @@
         <v>16</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L86" s="28"/>
       <c r="M86" s="31">
@@ -10387,15 +11468,15 @@
         <v>2003</v>
       </c>
       <c r="S86" s="31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="2">
         <v>273</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C87" s="2">
         <v>2.27</v>
@@ -10422,7 +11503,7 @@
         <v>16</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87">
@@ -10435,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="S87" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="2">
         <v>66</v>
       </c>
@@ -10479,14 +11560,21 @@
       <c r="N88">
         <v>36.623100000000001</v>
       </c>
+      <c r="O88">
+        <f>R88-Q88</f>
+        <v>35</v>
+      </c>
       <c r="Q88">
         <v>1972</v>
       </c>
       <c r="R88">
         <v>2007</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="2">
         <v>119</v>
       </c>
@@ -10508,7 +11596,7 @@
       <c r="G89" s="2">
         <v>-50</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="27">
         <v>9.6</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -10521,8 +11609,26 @@
         <v>223</v>
       </c>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>44.053947999999998</v>
+      </c>
+      <c r="N89">
+        <v>-123.269766</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+      <c r="Q89">
+        <v>1971</v>
+      </c>
+      <c r="R89">
+        <v>1976</v>
+      </c>
+      <c r="S89" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="9">
         <v>172</v>
       </c>
@@ -10557,8 +11663,23 @@
         <v>305</v>
       </c>
       <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M90" s="9">
+        <v>44.231366999999999</v>
+      </c>
+      <c r="N90">
+        <v>-122.17666800000001</v>
+      </c>
+      <c r="O90">
+        <v>20</v>
+      </c>
+      <c r="Q90">
+        <v>1953</v>
+      </c>
+      <c r="R90">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="2">
         <v>173</v>
       </c>
@@ -10593,8 +11714,12 @@
         <v>305</v>
       </c>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M91" s="2"/>
+      <c r="P91" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="2">
         <v>174</v>
       </c>
@@ -10629,8 +11754,26 @@
         <v>305</v>
       </c>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M92" s="9">
+        <v>44.231366999999999</v>
+      </c>
+      <c r="N92">
+        <v>-122.17666800000001</v>
+      </c>
+      <c r="O92">
+        <v>20</v>
+      </c>
+      <c r="Q92">
+        <v>1953</v>
+      </c>
+      <c r="R92">
+        <v>1973</v>
+      </c>
+      <c r="S92" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="20.399999999999999">
       <c r="A93" s="2">
         <v>175</v>
       </c>
@@ -10665,8 +11808,11 @@
         <v>305</v>
       </c>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P93" s="27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="20.399999999999999">
       <c r="A94" s="2">
         <v>176</v>
       </c>
@@ -10701,13 +11847,16 @@
         <v>305</v>
       </c>
       <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="P94" s="27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="20.399999999999999">
       <c r="A95" s="2">
         <v>237</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C95" s="2">
         <v>4.9299999999999997E-2</v>
@@ -10734,11 +11883,14 @@
         <v>16</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P95" s="27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="2">
         <v>154</v>
       </c>
@@ -10773,13 +11925,31 @@
         <v>278</v>
       </c>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>44.294972999999999</v>
+      </c>
+      <c r="N96">
+        <v>-122.636921</v>
+      </c>
+      <c r="P96" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q96">
+        <v>1953</v>
+      </c>
+      <c r="R96">
+        <v>1973</v>
+      </c>
+      <c r="S96" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="20.399999999999999">
       <c r="A97" s="2">
         <v>233</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C97" s="2">
         <v>5.91E-2</v>
@@ -10806,16 +11976,19 @@
         <v>16</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L97" s="27"/>
+      <c r="P97" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="20.399999999999999">
       <c r="A98" s="2">
         <v>235</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C98" s="2">
         <v>5.11E-2</v>
@@ -10842,16 +12015,19 @@
         <v>16</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="L98" s="27"/>
+      <c r="P98" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="20.399999999999999">
       <c r="A99" s="2">
         <v>234</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C99" s="2">
         <v>4.3499999999999997E-2</v>
@@ -10878,11 +12054,14 @@
         <v>16</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="L99" s="27"/>
+      <c r="P99" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="2">
         <v>155</v>
       </c>
@@ -10917,8 +12096,30 @@
         <v>280</v>
       </c>
       <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>44.294972999999999</v>
+      </c>
+      <c r="N100">
+        <v>-122.636921</v>
+      </c>
+      <c r="O100">
+        <f>R100-Q100</f>
+        <v>15</v>
+      </c>
+      <c r="P100" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q100">
+        <v>1960</v>
+      </c>
+      <c r="R100">
+        <v>1975</v>
+      </c>
+      <c r="S100" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="100.8">
       <c r="A101" s="9">
         <v>62</v>
       </c>
@@ -10959,6 +12160,13 @@
       <c r="N101">
         <v>-123.85</v>
       </c>
+      <c r="O101">
+        <f>R101-Q101</f>
+        <v>11</v>
+      </c>
+      <c r="P101" s="26" t="s">
+        <v>767</v>
+      </c>
       <c r="Q101">
         <v>1959</v>
       </c>
@@ -10966,10 +12174,10 @@
         <v>1970</v>
       </c>
       <c r="S101" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="20.399999999999999">
       <c r="A102" s="2">
         <v>63</v>
       </c>
@@ -11010,6 +12218,13 @@
       <c r="N102">
         <v>-123.88333299999999</v>
       </c>
+      <c r="O102">
+        <f>R102-Q102</f>
+        <v>23</v>
+      </c>
+      <c r="P102" t="s">
+        <v>768</v>
+      </c>
       <c r="Q102">
         <v>1950</v>
       </c>
@@ -11017,15 +12232,15 @@
         <v>1973</v>
       </c>
       <c r="S102" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="20.399999999999999">
       <c r="A103" s="2">
         <v>255</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C103" s="2">
         <v>3.54</v>
@@ -11052,11 +12267,14 @@
         <v>16</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P103" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="2">
         <v>104</v>
       </c>
@@ -11091,8 +12309,30 @@
         <v>195</v>
       </c>
       <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M104">
+        <v>40.365833000000002</v>
+      </c>
+      <c r="N104">
+        <v>81.804167000000007</v>
+      </c>
+      <c r="O104">
+        <f>R104-Q104</f>
+        <v>19</v>
+      </c>
+      <c r="P104" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q104">
+        <v>1938</v>
+      </c>
+      <c r="R104">
+        <v>1957</v>
+      </c>
+      <c r="S104" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="2">
         <v>122</v>
       </c>
@@ -11127,8 +12367,27 @@
         <v>228</v>
       </c>
       <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:19" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="M105">
+        <v>-37.575575000000001</v>
+      </c>
+      <c r="N105">
+        <v>145.63027500000001</v>
+      </c>
+      <c r="O105">
+        <f>R105-Q105</f>
+        <v>38</v>
+      </c>
+      <c r="Q105">
+        <v>1970</v>
+      </c>
+      <c r="R105">
+        <v>2008</v>
+      </c>
+      <c r="S105" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="30.6">
       <c r="A106" s="2">
         <v>112</v>
       </c>
@@ -11163,8 +12422,27 @@
         <v>211</v>
       </c>
       <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <v>35.046388999999998</v>
+      </c>
+      <c r="N106">
+        <v>83.465000000000003</v>
+      </c>
+      <c r="O106">
+        <f>R106-Q106</f>
+        <v>2</v>
+      </c>
+      <c r="P106" s="43" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q106" s="10">
+        <v>1962</v>
+      </c>
+      <c r="R106" s="10">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="39.450000000000003" customHeight="1">
       <c r="A107" s="2">
         <v>111</v>
       </c>
@@ -11199,8 +12477,30 @@
         <v>209</v>
       </c>
       <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="N107">
+        <v>86.416667000000004</v>
+      </c>
+      <c r="O107">
+        <f>R107-Q107</f>
+        <v>12</v>
+      </c>
+      <c r="P107" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q107">
+        <v>1955</v>
+      </c>
+      <c r="R107">
+        <v>1967</v>
+      </c>
+      <c r="S107" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="2">
         <v>164</v>
       </c>
@@ -11231,17 +12531,20 @@
       <c r="J108" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="27" t="s">
         <v>293</v>
       </c>
       <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="P108" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="20.399999999999999">
       <c r="A109" s="2">
         <v>304</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C109" s="2">
         <v>1</v>
@@ -11268,7 +12571,7 @@
         <v>16</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L109" s="27"/>
       <c r="M109">
@@ -11281,18 +12584,18 @@
         <v>11</v>
       </c>
       <c r="P109" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="S109" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="20.399999999999999">
       <c r="A110" s="2">
         <v>305</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
@@ -11319,7 +12622,7 @@
         <v>16</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L110" s="27"/>
       <c r="M110">
@@ -11332,18 +12635,18 @@
         <v>13</v>
       </c>
       <c r="P110" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="S110" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="20.399999999999999">
       <c r="A111" s="2">
         <v>303</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C111" s="2">
         <v>1</v>
@@ -11370,7 +12673,7 @@
         <v>16</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L111" s="27"/>
       <c r="M111">
@@ -11380,18 +12683,18 @@
         <v>-110.963855204659</v>
       </c>
       <c r="P111" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="S111" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="31.2" thickBot="1">
       <c r="A112" s="4">
         <v>276</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C112" s="4">
         <v>0.39</v>
@@ -11418,7 +12721,7 @@
         <v>16</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L112" s="27"/>
       <c r="M112">
@@ -11431,15 +12734,15 @@
         <v>10</v>
       </c>
       <c r="S112" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="24" customHeight="1">
       <c r="A113" s="2">
         <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C113" s="2">
         <v>0.183</v>
@@ -11465,17 +12768,21 @@
       <c r="J113" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K113" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+    </row>
+    <row r="114" spans="1:19" ht="30" customHeight="1">
       <c r="A114" s="2">
         <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
@@ -11502,7 +12809,7 @@
         <v>16</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114">
@@ -11515,18 +12822,18 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="S114" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="86.4">
       <c r="A115" s="2">
         <v>226</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>393</v>
+        <v>780</v>
       </c>
       <c r="C115" s="2">
         <v>0.05</v>
@@ -11553,16 +12860,19 @@
         <v>16</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="P115" s="26" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="30.6">
       <c r="A116" s="2">
         <v>260</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
@@ -11589,7 +12899,7 @@
         <v>16</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116">
@@ -11602,13 +12912,13 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="S116" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="31.5" customHeight="1">
       <c r="A117" s="2">
         <v>75</v>
       </c>
@@ -11639,17 +12949,31 @@
       <c r="J117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L117" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="M117">
+        <v>35.139167</v>
+      </c>
+      <c r="N117">
+        <v>77.530277999999996</v>
+      </c>
+      <c r="O117" t="s">
+        <v>778</v>
+      </c>
+      <c r="P117" s="26" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="30.6">
       <c r="A118" s="2">
         <v>277</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C118" s="2">
         <v>0.28000000000000003</v>
@@ -11675,10 +12999,12 @@
       <c r="J118" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L118" s="2"/>
+      <c r="K118" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>783</v>
+      </c>
       <c r="M118">
         <v>33.828561360954403</v>
       </c>
@@ -11689,15 +13015,15 @@
         <v>10</v>
       </c>
       <c r="S118" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="20.399999999999999">
       <c r="A119" s="2">
         <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C119" s="2">
         <v>0.05</v>
@@ -11723,17 +13049,32 @@
       <c r="J119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K119" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="M119">
+        <v>32.740980999999998</v>
+      </c>
+      <c r="N119">
+        <v>-111.548249</v>
+      </c>
+      <c r="O119" s="10"/>
+      <c r="P119" s="44" t="s">
+        <v>782</v>
+      </c>
+      <c r="S119" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="2">
         <v>307</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C120" s="2">
         <v>0.43</v>
@@ -11760,16 +13101,19 @@
         <v>16</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P120" s="44" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="2">
         <v>308</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C121" s="2">
         <v>0.43</v>
@@ -11796,16 +13140,19 @@
         <v>16</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P121" s="44" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="2">
         <v>309</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C122" s="2">
         <v>0.43</v>
@@ -11832,16 +13179,19 @@
         <v>16</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P122" s="44" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="2">
         <v>310</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C123" s="2">
         <v>0.36</v>
@@ -11868,7 +13218,7 @@
         <v>16</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123">
@@ -11882,11 +13232,14 @@
       <c r="O123">
         <v>25</v>
       </c>
+      <c r="P123" s="44" t="s">
+        <v>787</v>
+      </c>
       <c r="S123" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="20.399999999999999">
       <c r="A124" s="2">
         <v>179</v>
       </c>
@@ -11922,7 +13275,7 @@
       </c>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
       <c r="A125" s="2">
         <v>209</v>
       </c>
@@ -11958,7 +13311,7 @@
       </c>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="20.399999999999999">
       <c r="A126" s="2">
         <v>180</v>
       </c>
@@ -11994,7 +13347,7 @@
       </c>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
       <c r="A127" s="2">
         <v>190</v>
       </c>
@@ -12030,12 +13383,12 @@
       </c>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19">
       <c r="A128" s="2">
         <v>284</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C128" s="2">
         <v>0.54</v>
@@ -12066,12 +13419,12 @@
       </c>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="20.399999999999999">
       <c r="A129" s="2">
         <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C129" s="2">
         <v>0.19</v>
@@ -12098,7 +13451,7 @@
         <v>16</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129">
@@ -12111,10 +13464,10 @@
         <v>10</v>
       </c>
       <c r="S129" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="20.399999999999999">
       <c r="A130" s="2">
         <v>91</v>
       </c>
@@ -12150,12 +13503,12 @@
       </c>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="20.399999999999999">
       <c r="A131" s="2">
         <v>217</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C131" s="2">
         <v>650</v>
@@ -12186,12 +13539,12 @@
       </c>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="20.399999999999999">
       <c r="A132" s="2">
         <v>218</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C132" s="2">
         <v>434</v>
@@ -12222,12 +13575,12 @@
       </c>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="20.399999999999999">
       <c r="A133" s="2">
         <v>245</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C133" s="2">
         <v>386</v>
@@ -12258,12 +13611,12 @@
       </c>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="20.399999999999999">
       <c r="A134" s="2">
         <v>246</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C134" s="2">
         <v>734</v>
@@ -12294,7 +13647,7 @@
       </c>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="20.399999999999999">
       <c r="A135" s="2">
         <v>110</v>
       </c>
@@ -12330,7 +13683,7 @@
       </c>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="20.399999999999999">
       <c r="A136" s="2">
         <v>115</v>
       </c>
@@ -12366,7 +13719,7 @@
       </c>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="20.399999999999999">
       <c r="A137" s="9">
         <v>116</v>
       </c>
@@ -12402,7 +13755,7 @@
       </c>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="20.399999999999999">
       <c r="A138" s="2">
         <v>107</v>
       </c>
@@ -12438,7 +13791,7 @@
       </c>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19">
       <c r="A139" s="2">
         <v>96</v>
       </c>
@@ -12474,12 +13827,12 @@
       </c>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" ht="21" thickBot="1">
       <c r="A140" s="4">
         <v>263</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C140" s="4">
         <v>9.1999999999999993</v>
@@ -12506,7 +13859,7 @@
         <v>16</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140">
@@ -12521,12 +13874,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="20.399999999999999">
       <c r="A141" s="2">
         <v>261</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C141" s="2">
         <v>4.24</v>
@@ -12553,7 +13906,7 @@
         <v>16</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141">
@@ -12566,10 +13919,10 @@
         <v>21</v>
       </c>
       <c r="S141" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="20.399999999999999">
       <c r="A142" s="2">
         <v>143</v>
       </c>
@@ -12605,7 +13958,7 @@
       </c>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="20.399999999999999">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -12641,7 +13994,7 @@
       </c>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19">
       <c r="A144" s="2">
         <v>186</v>
       </c>
@@ -12677,12 +14030,12 @@
       </c>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="20.399999999999999">
       <c r="A145" s="2">
         <v>297</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C145" s="2">
         <v>0.68200000000000005</v>
@@ -12709,16 +14062,16 @@
         <v>16</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="20.399999999999999">
       <c r="A146" s="2">
         <v>300</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C146" s="2">
         <v>0.85599999999999998</v>
@@ -12745,16 +14098,16 @@
         <v>16</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19">
       <c r="A147" s="2">
         <v>250</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C147" s="2">
         <v>1.4</v>
@@ -12781,16 +14134,16 @@
         <v>16</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="20.399999999999999">
       <c r="A148" s="2">
         <v>243</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C148" s="2">
         <v>0.05</v>
@@ -12817,16 +14170,16 @@
         <v>16</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19">
       <c r="A149" s="2">
         <v>236</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C149" s="2">
         <v>4.1500000000000002E-2</v>
@@ -12853,11 +14206,11 @@
         <v>16</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19">
       <c r="A150" s="2">
         <v>198</v>
       </c>
@@ -12893,7 +14246,7 @@
       </c>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19">
       <c r="A151" s="2">
         <v>196</v>
       </c>
@@ -12929,7 +14282,7 @@
       </c>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19">
       <c r="A152" s="2">
         <v>202</v>
       </c>
@@ -12974,15 +14327,15 @@
         <v>6</v>
       </c>
       <c r="S152" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="2">
         <v>229</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C153" s="2">
         <v>8.2899999999999991</v>
@@ -13022,15 +14375,15 @@
         <v>6</v>
       </c>
       <c r="S153" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="2">
         <v>262</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C154" s="2">
         <v>3.59</v>
@@ -13070,15 +14423,15 @@
         <v>6</v>
       </c>
       <c r="S154" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="2">
         <v>266</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C155" s="2">
         <v>10.59</v>
@@ -13118,10 +14471,10 @@
         <v>6</v>
       </c>
       <c r="S155" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="2">
         <v>120</v>
       </c>
@@ -13157,7 +14510,7 @@
       </c>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19">
       <c r="A157" s="2">
         <v>121</v>
       </c>
@@ -13193,7 +14546,7 @@
       </c>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19">
       <c r="A158" s="2">
         <v>127</v>
       </c>
@@ -13229,12 +14582,12 @@
       </c>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19">
       <c r="A159" s="2">
         <v>301</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C159" s="2">
         <v>0.6</v>
@@ -13261,11 +14614,11 @@
         <v>16</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19">
       <c r="A160" s="2">
         <v>183</v>
       </c>
@@ -13301,7 +14654,7 @@
       </c>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12">
       <c r="A161" s="2">
         <v>185</v>
       </c>
@@ -13337,7 +14690,7 @@
       </c>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="20.399999999999999">
       <c r="A162" s="2">
         <v>93</v>
       </c>
@@ -13373,7 +14726,7 @@
       </c>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12">
       <c r="A163" s="2">
         <v>193</v>
       </c>
@@ -13409,7 +14762,7 @@
       </c>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="30.6">
       <c r="A164" s="2">
         <v>78</v>
       </c>
@@ -13445,7 +14798,7 @@
       </c>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="30.6">
       <c r="A165" s="2">
         <v>79</v>
       </c>
@@ -13481,7 +14834,7 @@
       </c>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="30.6">
       <c r="A166" s="2">
         <v>213</v>
       </c>
@@ -13517,7 +14870,7 @@
       </c>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="30.6">
       <c r="A167" s="2">
         <v>214</v>
       </c>
@@ -13553,7 +14906,7 @@
       </c>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="31.2" thickBot="1">
       <c r="A168" s="4">
         <v>215</v>
       </c>
@@ -13589,12 +14942,12 @@
       </c>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="30.6">
       <c r="A169" s="2">
         <v>219</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C169" s="2">
         <v>0.30499999999999999</v>
@@ -13625,7 +14978,7 @@
       </c>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="20.399999999999999">
       <c r="A170" s="2">
         <v>139</v>
       </c>
@@ -13661,7 +15014,7 @@
       </c>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12">
       <c r="A171" s="2">
         <v>137</v>
       </c>
@@ -13697,7 +15050,7 @@
       </c>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12">
       <c r="A172" s="9">
         <v>144</v>
       </c>
@@ -13733,7 +15086,7 @@
       </c>
       <c r="L172" s="9"/>
     </row>
-    <row r="173" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="30.6">
       <c r="A173" s="2">
         <v>134</v>
       </c>
@@ -13769,7 +15122,7 @@
       </c>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12">
       <c r="A174" s="2">
         <v>207</v>
       </c>
@@ -13805,7 +15158,7 @@
       </c>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12">
       <c r="A175" s="2">
         <v>208</v>
       </c>
@@ -13841,7 +15194,7 @@
       </c>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12">
       <c r="A176" s="2">
         <v>187</v>
       </c>
@@ -13877,7 +15230,7 @@
       </c>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:19" ht="51" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="30.6">
       <c r="A177" s="2">
         <v>133</v>
       </c>
@@ -13913,7 +15266,7 @@
       </c>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19">
       <c r="A178" s="2">
         <v>135</v>
       </c>
@@ -13949,7 +15302,7 @@
       </c>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19">
       <c r="A179" s="2">
         <v>136</v>
       </c>
@@ -13985,7 +15338,7 @@
       </c>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19">
       <c r="A180" s="2">
         <v>138</v>
       </c>
@@ -14021,7 +15374,7 @@
       </c>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19">
       <c r="A181" s="2">
         <v>140</v>
       </c>
@@ -14057,7 +15410,7 @@
       </c>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19">
       <c r="A182" s="2">
         <v>141</v>
       </c>
@@ -14093,7 +15446,7 @@
       </c>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19">
       <c r="A183" s="2">
         <v>145</v>
       </c>
@@ -14129,7 +15482,7 @@
       </c>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19">
       <c r="A184" s="2">
         <v>146</v>
       </c>
@@ -14165,7 +15518,7 @@
       </c>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19">
       <c r="A185" s="2">
         <v>147</v>
       </c>
@@ -14201,7 +15554,7 @@
       </c>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19">
       <c r="A186" s="2">
         <v>148</v>
       </c>
@@ -14237,7 +15590,7 @@
       </c>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19">
       <c r="A187" s="2">
         <v>149</v>
       </c>
@@ -14273,12 +15626,12 @@
       </c>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="20.399999999999999">
       <c r="A188" s="2">
         <v>306</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C188" s="2">
         <v>1</v>
@@ -14305,7 +15658,7 @@
         <v>16</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188">
@@ -14318,13 +15671,13 @@
         <v>11</v>
       </c>
       <c r="P188" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="S188" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="20.399999999999999">
       <c r="A189" s="2">
         <v>92</v>
       </c>
@@ -14360,7 +15713,7 @@
       </c>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19">
       <c r="A190" s="2">
         <v>101</v>
       </c>
@@ -14396,7 +15749,7 @@
       </c>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="20.399999999999999">
       <c r="A191" s="2">
         <v>166</v>
       </c>
@@ -14432,7 +15785,7 @@
       </c>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="20.399999999999999">
       <c r="A192" s="2">
         <v>177</v>
       </c>
@@ -14468,12 +15821,12 @@
       </c>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" ht="20.399999999999999">
       <c r="A193" s="2">
         <v>258</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C193" s="2">
         <v>8.6999999999999993</v>
@@ -14513,15 +15866,15 @@
         <v>17</v>
       </c>
       <c r="S193" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" ht="20.399999999999999">
       <c r="A194" s="2">
         <v>272</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C194" s="2">
         <v>0.89</v>
@@ -14561,13 +15914,13 @@
         <v>17</v>
       </c>
       <c r="P194" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="S194" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="2">
         <v>86</v>
       </c>
@@ -14601,9 +15954,16 @@
       <c r="K195" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="L195" s="2"/>
-    </row>
-    <row r="196" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L195" s="34"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="12"/>
+    </row>
+    <row r="196" spans="1:20" ht="15" thickBot="1">
       <c r="A196" s="4">
         <v>87</v>
       </c>
@@ -14637,9 +15997,16 @@
       <c r="K196" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="L196" s="2"/>
-    </row>
-    <row r="197" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L196" s="34"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="12"/>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="2">
         <v>206</v>
       </c>
@@ -14673,14 +16040,21 @@
       <c r="K197" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="L197" s="2"/>
-    </row>
-    <row r="198" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L197" s="34"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="12"/>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="2">
         <v>232</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C198" s="2">
         <v>5.74E-2</v>
@@ -14707,16 +16081,23 @@
         <v>16</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L198" s="2"/>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="L198" s="34"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="12"/>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="2">
         <v>238</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C199" s="2">
         <v>4.0800000000000003E-2</v>
@@ -14743,11 +16124,18 @@
         <v>16</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="L199" s="2"/>
-    </row>
-    <row r="200" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="L199" s="34"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="12"/>
+    </row>
+    <row r="200" spans="1:20" ht="20.399999999999999">
       <c r="A200" s="2">
         <v>67</v>
       </c>
@@ -14782,22 +16170,22 @@
         <v>133</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P200" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" s="2">
         <v>167</v>
       </c>
@@ -14844,12 +16232,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20">
       <c r="A202" s="9">
         <v>228</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C202" s="9">
         <v>0.318</v>
@@ -14876,11 +16264,11 @@
         <v>16</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" ht="20.399999999999999">
       <c r="A203" s="2">
         <v>95</v>
       </c>
@@ -14926,15 +16314,15 @@
         <v>26</v>
       </c>
       <c r="P203" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" s="2">
         <v>269</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C204" s="2">
         <v>1.8</v>
@@ -14961,30 +16349,24 @@
         <v>16</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M204">
-        <f>-33-59/60-30/3600</f>
-        <v>-33.991666666666667</v>
+        <f>-33-57/60</f>
+        <v>-33.950000000000003</v>
       </c>
       <c r="N204">
-        <f>18+57/60+18/3600</f>
-        <v>18.954999999999998</v>
+        <f>-18-15/60</f>
+        <v>-18.25</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q204">
-        <v>1986</v>
-      </c>
-      <c r="R204">
-        <v>1987</v>
-      </c>
-      <c r="S204" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" s="2">
         <v>194</v>
       </c>
@@ -15029,7 +16411,7 @@
       </c>
       <c r="O205" s="31"/>
       <c r="P205" s="31" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
       <c r="Q205">
         <v>1986</v>
@@ -15038,11 +16420,11 @@
         <v>1987</v>
       </c>
       <c r="S205" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T205" s="31"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20">
       <c r="A206" s="2">
         <v>85</v>
       </c>
@@ -15086,7 +16468,7 @@
         <v>18.931111111111111</v>
       </c>
       <c r="P206" t="s">
-        <v>760</v>
+        <v>792</v>
       </c>
       <c r="Q206">
         <v>1986</v>
@@ -15095,15 +16477,15 @@
         <v>1987</v>
       </c>
       <c r="S206" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" s="9">
         <v>286</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C207" s="9">
         <v>1.32</v>
@@ -15150,16 +16532,16 @@
         <v>1987</v>
       </c>
       <c r="S207" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T207" s="31"/>
     </row>
-    <row r="208" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20">
       <c r="A208" s="2">
         <v>299</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C208" s="2">
         <v>0.77500000000000002</v>
@@ -15186,7 +16568,7 @@
         <v>16</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L208" s="28"/>
       <c r="M208" s="31">
@@ -15204,16 +16586,16 @@
         <v>1993</v>
       </c>
       <c r="S208" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T208" s="31"/>
     </row>
-    <row r="209" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20">
       <c r="A209" s="2">
         <v>227</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C209" s="2">
         <v>0.71</v>
@@ -15240,7 +16622,7 @@
         <v>16</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L209" s="28"/>
       <c r="M209" s="31">
@@ -15251,7 +16633,7 @@
       </c>
       <c r="O209" s="31"/>
       <c r="P209" s="31" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="Q209" s="31">
         <v>1950</v>
@@ -15260,16 +16642,16 @@
         <v>1973</v>
       </c>
       <c r="S209" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T209" s="31"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20">
       <c r="A210" s="2">
         <v>296</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C210" s="2">
         <v>1</v>
@@ -15296,7 +16678,7 @@
         <v>16</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L210" s="28"/>
       <c r="M210" s="31">
@@ -15307,7 +16689,7 @@
       </c>
       <c r="O210" s="31"/>
       <c r="P210" s="31" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="Q210" s="31">
         <v>1966</v>
@@ -15316,16 +16698,16 @@
         <v>1973</v>
       </c>
       <c r="S210" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T210" s="31"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20">
       <c r="A211" s="2">
         <v>302</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C211" s="2">
         <v>1</v>
@@ -15352,7 +16734,7 @@
         <v>16</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L211" s="2"/>
       <c r="M211">
@@ -15365,13 +16747,13 @@
         <v>5</v>
       </c>
       <c r="P211" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S211" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" s="2">
         <v>125</v>
       </c>
@@ -15423,11 +16805,11 @@
         <v>1993</v>
       </c>
       <c r="S212" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T212" s="31"/>
     </row>
-    <row r="213" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20">
       <c r="A213" s="2">
         <v>118</v>
       </c>
@@ -15472,7 +16854,7 @@
       </c>
       <c r="O213" s="31"/>
       <c r="P213" s="31" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="Q213" s="31">
         <v>1977</v>
@@ -15481,11 +16863,11 @@
         <v>1983</v>
       </c>
       <c r="S213" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T213" s="31"/>
     </row>
-    <row r="214" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" ht="20.399999999999999">
       <c r="A214" s="2">
         <v>113</v>
       </c>
@@ -15530,16 +16912,16 @@
       </c>
       <c r="O214" s="31"/>
       <c r="P214" s="31" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="Q214" s="31"/>
       <c r="R214" s="31"/>
       <c r="S214" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T214" s="31"/>
     </row>
-    <row r="215" spans="1:20" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" ht="30.6">
       <c r="A215" s="2">
         <v>114</v>
       </c>
@@ -15584,7 +16966,7 @@
       </c>
       <c r="O215" s="31"/>
       <c r="P215" s="31" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="Q215" s="31">
         <v>1964</v>
@@ -15593,11 +16975,11 @@
         <v>1984</v>
       </c>
       <c r="S215" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T215" s="31"/>
     </row>
-    <row r="216" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" ht="20.399999999999999">
       <c r="A216" s="2">
         <v>109</v>
       </c>
@@ -15642,7 +17024,7 @@
       </c>
       <c r="O216" s="31"/>
       <c r="P216" s="31" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="Q216" s="31">
         <v>1956</v>
@@ -15651,11 +17033,11 @@
         <v>1967</v>
       </c>
       <c r="S216" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T216" s="31"/>
     </row>
-    <row r="217" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20">
       <c r="A217" s="2">
         <v>106</v>
       </c>
@@ -15700,7 +17082,7 @@
       </c>
       <c r="O217" s="31"/>
       <c r="P217" s="31" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="Q217" s="31">
         <v>1956</v>
@@ -15709,11 +17091,11 @@
         <v>1967</v>
       </c>
       <c r="S217" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T217" s="31"/>
     </row>
-    <row r="218" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20">
       <c r="A218" s="2">
         <v>108</v>
       </c>
@@ -15758,7 +17140,7 @@
       </c>
       <c r="O218" s="31"/>
       <c r="P218" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="Q218" s="31">
         <v>1940</v>
@@ -15767,16 +17149,16 @@
         <v>1963</v>
       </c>
       <c r="S218" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T218" s="31"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20">
       <c r="A219" s="2">
         <v>242</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C219" s="2">
         <v>0.35</v>
@@ -15803,18 +17185,18 @@
         <v>16</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L219" s="28"/>
-      <c r="M219" s="32">
+      <c r="M219" s="45">
         <v>35.678013</v>
       </c>
       <c r="N219" s="31">
         <v>-88.355614000000003</v>
       </c>
       <c r="O219" s="31"/>
-      <c r="P219" s="33" t="s">
-        <v>762</v>
+      <c r="P219" s="31" t="s">
+        <v>801</v>
       </c>
       <c r="Q219" s="31">
         <v>1941</v>
@@ -15823,16 +17205,16 @@
         <v>1961</v>
       </c>
       <c r="S219" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T219" s="31"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20">
       <c r="A220" s="2">
         <v>294</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C220" s="2">
         <v>6.94</v>
@@ -15859,10 +17241,10 @@
         <v>16</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L220" s="28"/>
-      <c r="M220" s="32">
+      <c r="M220" s="45">
         <v>36.331859000000001</v>
       </c>
       <c r="N220" s="31">
@@ -15870,7 +17252,7 @@
       </c>
       <c r="O220" s="31"/>
       <c r="P220" s="31" t="s">
-        <v>763</v>
+        <v>802</v>
       </c>
       <c r="Q220" s="31">
         <v>1935</v>
@@ -15879,16 +17261,16 @@
         <v>1960</v>
       </c>
       <c r="S220" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T220" s="31"/>
     </row>
-    <row r="221" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" ht="20.399999999999999">
       <c r="A221" s="2">
         <v>223</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C221" s="2">
         <v>0.41</v>
@@ -15915,7 +17297,7 @@
         <v>16</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L221" s="2"/>
       <c r="M221">
@@ -15928,13 +17310,10 @@
         <v>3</v>
       </c>
       <c r="P221" t="s">
-        <v>733</v>
-      </c>
-      <c r="S221" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" ht="20.399999999999999">
       <c r="A222" s="2">
         <v>126</v>
       </c>
@@ -15978,16 +17357,13 @@
       <c r="O222">
         <v>6</v>
       </c>
-      <c r="S222" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:20" ht="20.399999999999999">
       <c r="A223" s="2">
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C223" s="2">
         <v>0.41</v>
@@ -16014,7 +17390,7 @@
         <v>16</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L223" s="2"/>
       <c r="M223">
@@ -16027,13 +17403,10 @@
         <v>6</v>
       </c>
       <c r="P223" t="s">
-        <v>734</v>
-      </c>
-      <c r="S223" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" ht="20.399999999999999">
       <c r="A224" s="2">
         <v>151</v>
       </c>
@@ -16078,13 +17451,10 @@
         <v>30</v>
       </c>
       <c r="P224" t="s">
-        <v>735</v>
-      </c>
-      <c r="S224" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" ht="20.399999999999999">
       <c r="A225" s="2">
         <v>152</v>
       </c>
@@ -16129,18 +17499,15 @@
         <v>30</v>
       </c>
       <c r="P225" t="s">
-        <v>735</v>
-      </c>
-      <c r="S225" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" ht="21" thickBot="1">
       <c r="A226" s="4">
         <v>184</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C226" s="4">
         <v>2</v>
@@ -16180,7 +17547,7 @@
       </c>
       <c r="O226" s="31"/>
       <c r="P226" s="31" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="Q226" s="31">
         <v>1941</v>
@@ -16189,11 +17556,11 @@
         <v>1973</v>
       </c>
       <c r="S226" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T226" s="31"/>
     </row>
-    <row r="227" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" ht="20.399999999999999">
       <c r="A227" s="6">
         <v>212</v>
       </c>
@@ -16248,16 +17615,16 @@
         <v>1977</v>
       </c>
       <c r="S227" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T227" s="31"/>
     </row>
-    <row r="228" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20">
       <c r="A228" s="2">
         <v>291</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C228" s="2">
         <v>0.81</v>
@@ -16284,7 +17651,7 @@
         <v>16</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L228" s="28"/>
       <c r="M228" s="31">
@@ -16297,7 +17664,7 @@
       </c>
       <c r="O228" s="31"/>
       <c r="P228" s="31" t="s">
-        <v>764</v>
+        <v>804</v>
       </c>
       <c r="Q228" s="31">
         <v>1920</v>
@@ -16306,11 +17673,11 @@
         <v>1926</v>
       </c>
       <c r="S228" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T228" s="31"/>
     </row>
-    <row r="229" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20">
       <c r="A229" s="2">
         <v>201</v>
       </c>
@@ -16364,16 +17731,16 @@
         <v>2003</v>
       </c>
       <c r="S229" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T229" s="31"/>
     </row>
-    <row r="230" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20">
       <c r="A230" s="2">
         <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C230" s="2">
         <v>0.63</v>
@@ -16400,7 +17767,7 @@
         <v>21</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L230" s="28"/>
       <c r="M230" s="31">
@@ -16413,7 +17780,7 @@
       </c>
       <c r="O230" s="31"/>
       <c r="P230" s="31" t="s">
-        <v>756</v>
+        <v>805</v>
       </c>
       <c r="Q230" s="31">
         <v>1990</v>
@@ -16422,16 +17789,16 @@
         <v>1992</v>
       </c>
       <c r="S230" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T230" s="31"/>
     </row>
-    <row r="231" spans="1:20" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" ht="20.399999999999999">
       <c r="A231" s="2">
         <v>248</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C231" s="2">
         <v>1.95</v>
@@ -16458,7 +17825,7 @@
         <v>16</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L231" s="2">
         <v>1300</v>
@@ -16473,7 +17840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20">
       <c r="A232" s="2">
         <v>159</v>
       </c>
@@ -16518,7 +17885,7 @@
       </c>
       <c r="O232" s="31"/>
       <c r="P232" s="31" t="s">
-        <v>753</v>
+        <v>806</v>
       </c>
       <c r="Q232" s="31">
         <v>1987</v>
@@ -16527,11 +17894,11 @@
         <v>2007</v>
       </c>
       <c r="S232" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T232" s="31"/>
     </row>
-    <row r="233" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20">
       <c r="A233" s="2">
         <v>160</v>
       </c>
@@ -16576,7 +17943,7 @@
       </c>
       <c r="O233" s="31"/>
       <c r="P233" s="31" t="s">
-        <v>753</v>
+        <v>806</v>
       </c>
       <c r="Q233" s="31">
         <v>1979</v>
@@ -16585,11 +17952,11 @@
         <v>2008</v>
       </c>
       <c r="S233" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T233" s="31"/>
     </row>
-    <row r="234" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20">
       <c r="A234" s="2">
         <v>165</v>
       </c>
@@ -16634,7 +18001,7 @@
       </c>
       <c r="O234" s="31"/>
       <c r="P234" s="31" t="s">
-        <v>753</v>
+        <v>806</v>
       </c>
       <c r="Q234" s="31">
         <v>1979</v>
@@ -16643,16 +18010,16 @@
         <v>2011</v>
       </c>
       <c r="S234" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T234" s="31"/>
     </row>
-    <row r="235" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20">
       <c r="A235" s="2">
         <v>239</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C235" s="2">
         <v>1.2749999999999999</v>
@@ -16692,7 +18059,7 @@
       </c>
       <c r="O235" s="31"/>
       <c r="P235" s="31" t="s">
-        <v>754</v>
+        <v>807</v>
       </c>
       <c r="Q235" s="31">
         <v>1979</v>
@@ -16701,16 +18068,16 @@
         <v>1986</v>
       </c>
       <c r="S235" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T235" s="31"/>
     </row>
-    <row r="236" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20">
       <c r="A236" s="2">
         <v>240</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C236" s="2">
         <v>1.2849999999999999</v>
@@ -16750,7 +18117,7 @@
       </c>
       <c r="O236" s="31"/>
       <c r="P236" s="31" t="s">
-        <v>752</v>
+        <v>808</v>
       </c>
       <c r="Q236" s="31">
         <v>1987</v>
@@ -16759,16 +18126,16 @@
         <v>2006</v>
       </c>
       <c r="S236" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T236" s="31"/>
     </row>
-    <row r="237" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20">
       <c r="A237" s="2">
         <v>268</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C237" s="2">
         <v>1.4</v>
@@ -16810,10 +18177,10 @@
         <v>8</v>
       </c>
       <c r="P237" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20">
       <c r="A238" s="2">
         <v>99</v>
       </c>
@@ -16863,11 +18230,11 @@
         <v>2007</v>
       </c>
       <c r="S238" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T238" s="31"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20">
       <c r="A239" s="2">
         <v>98</v>
       </c>
@@ -16917,16 +18284,16 @@
         <v>2007</v>
       </c>
       <c r="S239" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T239" s="31"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20">
       <c r="A240" s="2">
         <v>279</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C240" s="2">
         <v>0.55300000000000005</v>
@@ -16966,15 +18333,15 @@
         <v>9</v>
       </c>
       <c r="S240" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" s="2">
         <v>280</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C241" s="2">
         <v>0.55400000000000005</v>
@@ -17014,15 +18381,15 @@
         <v>7</v>
       </c>
       <c r="S241" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" s="2">
         <v>298</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C242" s="2">
         <v>0.94</v>
@@ -17049,7 +18416,7 @@
         <v>16</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L242" s="2">
         <v>1470.8</v>
@@ -17064,15 +18431,15 @@
         <v>24</v>
       </c>
       <c r="P242" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" ht="20.399999999999999">
       <c r="A243" s="2">
         <v>281</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C243" s="2">
         <v>5</v>
@@ -17099,7 +18466,7 @@
         <v>16</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L243" s="2"/>
       <c r="M243">
@@ -17114,12 +18481,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" ht="20.399999999999999">
       <c r="A244" s="9">
         <v>282</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C244" s="9">
         <v>5</v>
@@ -17146,7 +18513,7 @@
         <v>16</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L244" s="9"/>
       <c r="M244">
@@ -17161,12 +18528,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20">
       <c r="A245" s="2">
         <v>247</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C245" s="2">
         <v>40</v>
@@ -17193,7 +18560,7 @@
         <v>21</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L245" s="28"/>
       <c r="M245" s="31">
@@ -17206,7 +18573,7 @@
       </c>
       <c r="O245" s="31"/>
       <c r="P245" s="31" t="s">
-        <v>751</v>
+        <v>809</v>
       </c>
       <c r="Q245" s="31">
         <v>1973</v>
@@ -17217,7 +18584,7 @@
       <c r="S245" s="31"/>
       <c r="T245" s="31"/>
     </row>
-    <row r="246" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20">
       <c r="A246" s="2">
         <v>178</v>
       </c>
@@ -17269,11 +18636,11 @@
         <v>2006</v>
       </c>
       <c r="S246" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T246" s="31"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20">
       <c r="A247" s="2">
         <v>203</v>
       </c>
@@ -17318,7 +18685,7 @@
       </c>
       <c r="O247" s="31"/>
       <c r="P247" s="31" t="s">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="Q247" s="31">
         <v>1984</v>
@@ -17327,16 +18694,16 @@
         <v>2012</v>
       </c>
       <c r="S247" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T247" s="31"/>
     </row>
-    <row r="248" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20">
       <c r="A248" s="2">
         <v>293</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C248" s="2">
         <v>249</v>
@@ -17363,7 +18730,7 @@
         <v>21</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L248" s="28">
         <v>560</v>
@@ -17387,11 +18754,11 @@
         <v>1987</v>
       </c>
       <c r="S248" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T248" s="31"/>
     </row>
-    <row r="249" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20">
       <c r="A249" s="2">
         <v>195</v>
       </c>
@@ -17438,12 +18805,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20">
       <c r="A250" s="9">
         <v>267</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C250" s="9">
         <v>31.47</v>
@@ -17485,12 +18852,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20">
       <c r="A251" s="2">
         <v>311</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C251" s="2">
         <v>149.43</v>
@@ -17530,18 +18897,18 @@
         <v>5</v>
       </c>
       <c r="P251" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S251" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" ht="15" thickBot="1">
       <c r="A252" s="4">
         <v>312</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C252" s="4">
         <v>2.7</v>
@@ -17587,6 +18954,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S252">
     <sortCondition ref="K1:K252"/>
   </sortState>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -17594,89 +18962,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A10" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="11" max="11" width="14.21875" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
       <c r="L2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N2" t="s">
         <v>525</v>
       </c>
-      <c r="N2" t="s">
-        <v>527</v>
-      </c>
       <c r="O2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Q2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C3">
         <v>391</v>
@@ -17703,7 +19071,7 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L3">
         <v>-32.020000000000003</v>
@@ -17718,12 +19086,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C4">
         <v>16.64</v>
@@ -17750,7 +19118,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L4">
         <v>-33.32</v>
@@ -17765,12 +19133,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C5">
         <v>559</v>
@@ -17797,7 +19165,7 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L5">
         <v>-37</v>
@@ -17812,12 +19180,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -17844,7 +19212,7 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L6">
         <v>-35.130000000000003</v>
@@ -17859,12 +19227,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7">
         <v>606</v>
@@ -17891,7 +19259,7 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L7">
         <v>-37.979999999999997</v>
@@ -17906,12 +19274,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C8">
         <v>760</v>
@@ -17938,7 +19306,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L8">
         <v>-38.15</v>
@@ -17953,12 +19321,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C9">
         <v>1135.7</v>
@@ -17985,7 +19353,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L9">
         <v>-36.979999999999997</v>
@@ -18000,12 +19368,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C10">
         <v>502</v>
@@ -18032,7 +19400,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L10">
         <v>-38.26</v>
@@ -18047,12 +19415,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C11">
         <v>673</v>
@@ -18079,7 +19447,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L11">
         <v>-35.19</v>
@@ -18094,12 +19462,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C12">
         <v>390</v>
@@ -18126,7 +19494,7 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L12">
         <v>-35.53</v>
@@ -18141,12 +19509,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C13">
         <v>3.2</v>
@@ -18173,7 +19541,7 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L13">
         <v>-37.29</v>
@@ -18188,12 +19556,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>324</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C14" s="10">
         <v>1.95</v>
@@ -18220,7 +19588,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L14" s="10">
         <v>-35.119999999999997</v>
@@ -18235,18 +19603,18 @@
         <v>6</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C15">
         <v>89</v>
@@ -18273,7 +19641,7 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L15">
         <v>-38.32</v>
@@ -18288,12 +19656,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>326</v>
       </c>
       <c r="B16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C16">
         <v>243</v>
@@ -18320,7 +19688,7 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L16">
         <v>-34.700000000000003</v>
@@ -18335,12 +19703,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C17">
         <v>26.35</v>
@@ -18367,7 +19735,7 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L17">
         <v>-33.700000000000003</v>
@@ -18382,12 +19750,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="10" customFormat="1">
       <c r="A18">
         <v>328</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C18" s="10">
         <f>196.4/100</f>
@@ -18415,7 +19783,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L18" s="10">
         <v>-33.810141399699802</v>
@@ -18427,15 +19795,15 @@
         <v>10</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C19">
         <v>14500</v>
@@ -18462,7 +19830,7 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L19">
         <v>16.433</v>
@@ -18477,15 +19845,15 @@
         <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C20">
         <v>179752</v>
@@ -18512,7 +19880,7 @@
         <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L20">
         <v>22.88</v>
@@ -18527,15 +19895,15 @@
         <v>50</v>
       </c>
       <c r="Q20" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>331</v>
       </c>
       <c r="B21" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C21">
         <v>3.44</v>
@@ -18562,7 +19930,7 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L21">
         <v>-33.295999999999999</v>
@@ -18577,15 +19945,15 @@
         <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>332</v>
       </c>
       <c r="B22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C22">
         <v>3.1</v>
@@ -18612,7 +19980,7 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L22">
         <v>-45.713000000000001</v>
@@ -18627,15 +19995,15 @@
         <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C23">
         <v>17299</v>
@@ -18662,7 +20030,7 @@
         <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L23">
         <v>-19</v>
@@ -18677,12 +20045,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C24">
         <v>16440</v>
@@ -18709,7 +20077,7 @@
         <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L24">
         <v>-24.5</v>
@@ -18724,18 +20092,18 @@
         <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q24" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>335</v>
       </c>
       <c r="B25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C25">
         <v>33000</v>
@@ -18762,7 +20130,7 @@
         <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L25">
         <v>-10.87</v>
@@ -18777,15 +20145,15 @@
         <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>336</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C26">
         <f>11.7*10000/10^6</f>
@@ -18813,7 +20181,7 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L26">
         <v>-24.81</v>
@@ -18828,15 +20196,15 @@
         <v>25</v>
       </c>
       <c r="Q26" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1">
       <c r="A27">
         <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C27">
         <v>104</v>
@@ -18877,8 +20245,67 @@
         <v>5</v>
       </c>
       <c r="Q27" t="s">
-        <v>738</v>
-      </c>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1140</v>
+      </c>
+      <c r="D28">
+        <v>895</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="42">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H28" s="42">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="41">
+        <v>49.68</v>
+      </c>
+      <c r="N28" s="41">
+        <v>-83.65</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q28">
+        <v>1985</v>
+      </c>
+      <c r="R28">
+        <v>1990</v>
+      </c>
+      <c r="S28" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="N29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
